--- a/templates/12.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
+++ b/templates/12.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="255" windowWidth="9780" windowHeight="5835" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="255" windowWidth="9780" windowHeight="5835" tabRatio="602" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BA Pembukaan Penawaran Harga" sheetId="6" r:id="rId1"/>
@@ -414,9 +414,6 @@
     <t>DIBULATKAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Nomor :  047.BAPPH/520/PPBJ-D/2010, Tanggal 01 September 2010 </t>
-  </si>
-  <si>
     <t>SPPH No. : 459/SPH/TABS-PLN/IX/2010</t>
   </si>
   <si>
@@ -453,18 +450,12 @@
     <t>3. .........................</t>
   </si>
   <si>
-    <t>Pada hari  ......... tanggal  ..........Bulan ........... Tahun ................(.........) Jam...............0 Wib, bertempat di ............., Panitia..........Pengadaan Barang/Jasa PT. PLN (Persero) Kantor Pusat yang dibentuk sesuai Surat Keputusan Direksi Nomor : ............. tanggal  .......... telah melakukan Pembukaan Penawaran Harga Pekerjaan ......................... yang dihadiri oleh Panitia...dan Penyedia Barang/Jasa sebagai berikut :</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>LAMPIRAN BERITA ACARA PEMBUKAAN</t>
   </si>
   <si>
-    <t>PEKERJAAN ...........................</t>
-  </si>
-  <si>
     <t>PT PLN (PERSERO) KANTOR PUSAT</t>
   </si>
   <si>
@@ -570,16 +561,7 @@
     <t>(Sesuai RKS)</t>
   </si>
   <si>
-    <t xml:space="preserve">                      Lampiran: ……………………</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanggal: …………………… </t>
-  </si>
-  <si>
     <t>LAMPIRAN BERITA ACARA PEMBUKAAN PENAWARAN (DATA ADM, TEKNIS DAN HARGA PENAWARAN)</t>
-  </si>
-  <si>
-    <t>PEKERJAAN PENGADAAN  ………………………</t>
   </si>
   <si>
     <t>PERSYARATAN KELENGKAPAN DOKUMEN</t>
@@ -789,9 +771,6 @@
     <t>A/TA = Ada/Tidak Ada</t>
   </si>
   <si>
-    <t>PANITIA PENGADAAN BARANG/JASA....</t>
-  </si>
-  <si>
     <t>PT. PLN (PERSERO) KANTOR PUSAT</t>
   </si>
   <si>
@@ -884,6 +863,317 @@
   <si>
     <t>Dst....</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pada hari  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#hari#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tanggal  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tanggal#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bulan #bulan# Tahun </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tahun#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgllengkap#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) Jam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#jam#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Wib, bertempat di </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tempat#,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#panitia#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Persero) Kantor Pusat yang dibentuk sesuai Surat Keputusan Direksi Nomor : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nosk#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tanggal  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tglsk#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> telah melakukan Pembukaan Penawaran Harga Pekerjaan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> yang dihadiri oleh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#panitia#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dan Penyedia Barang/Jasa sebagai berikut :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nomor :  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nomor#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Tanggal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgllengkap#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PEKERJAAN PENGADAAN  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tanggal: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tanggal#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PEKERJAAN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Lampiran: 1 berkas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>PANITIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #namapengadaan#</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -892,10 +1182,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -903,6 +1193,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1042,19 +1333,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1105,6 +1383,39 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2332,7 +2643,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2684,24 +2995,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2754,82 +3065,97 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2838,6 +3164,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2856,167 +3203,146 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3051,12 +3377,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3075,13 +3395,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3760,8 +4074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ106"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:C64"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3801,28 +4115,28 @@
       <c r="I4" s="71"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="235" t="s">
+      <c r="B5" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
       <c r="I5" s="30"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="235" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
+      <c r="B6" s="237" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
       <c r="I6" s="30"/>
       <c r="J6" s="5"/>
     </row>
@@ -3839,14 +4153,14 @@
     </row>
     <row r="8" spans="2:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="236" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="236"/>
-      <c r="H8" s="236"/>
+      <c r="C8" s="238" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
       <c r="I8" s="31"/>
       <c r="J8" s="5"/>
     </row>
@@ -3866,11 +4180,11 @@
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="227" t="s">
+      <c r="F10" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="228"/>
-      <c r="H10" s="229"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="241"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -3879,9 +4193,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="232"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="244"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
     </row>
@@ -3889,19 +4203,19 @@
       <c r="B12" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="233" t="s">
+      <c r="C12" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="239" t="s">
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="224" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="239" t="s">
+      <c r="H12" s="224" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="239" t="s">
-        <v>58</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
@@ -3910,25 +4224,25 @@
       <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="233"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="240"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="45"/>
-      <c r="C14" s="233" t="s">
+      <c r="C14" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
       <c r="I14" s="12"/>
       <c r="J14" s="9"/>
     </row>
@@ -3937,14 +4251,14 @@
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="225" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="225" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="225" t="s">
-        <v>60</v>
+      <c r="F15" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="230" t="s">
+        <v>59</v>
       </c>
       <c r="J15" s="9"/>
     </row>
@@ -3953,9 +4267,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3964,13 +4278,13 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
@@ -4538,11 +4852,11 @@
       <c r="C43" s="41"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="227" t="s">
+      <c r="F43" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="228"/>
-      <c r="H43" s="229"/>
+      <c r="G43" s="240"/>
+      <c r="H43" s="241"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
@@ -4551,9 +4865,9 @@
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="230"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="232"/>
+      <c r="F44" s="242"/>
+      <c r="G44" s="243"/>
+      <c r="H44" s="244"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
     </row>
@@ -4561,19 +4875,19 @@
       <c r="B45" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="233" t="s">
+      <c r="C45" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="239" t="s">
+      <c r="D45" s="229"/>
+      <c r="E45" s="229"/>
+      <c r="F45" s="224" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="239" t="s">
+      <c r="H45" s="224" t="s">
         <v>57</v>
-      </c>
-      <c r="H45" s="239" t="s">
-        <v>58</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
@@ -4582,25 +4896,25 @@
       <c r="B46" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="233"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="240"/>
-      <c r="G46" s="240"/>
-      <c r="H46" s="240"/>
+      <c r="C46" s="228"/>
+      <c r="D46" s="229"/>
+      <c r="E46" s="229"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="225"/>
+      <c r="H46" s="225"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="2:36" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="45"/>
-      <c r="C47" s="233" t="s">
+      <c r="C47" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="241"/>
-      <c r="G47" s="241"/>
-      <c r="H47" s="241"/>
+      <c r="D47" s="229"/>
+      <c r="E47" s="229"/>
+      <c r="F47" s="226"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="226"/>
       <c r="I47" s="12"/>
       <c r="J47" s="9"/>
     </row>
@@ -4609,14 +4923,14 @@
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="225" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="225" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" s="225" t="s">
-        <v>60</v>
+      <c r="F48" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="230" t="s">
+        <v>59</v>
       </c>
       <c r="J48" s="9"/>
     </row>
@@ -4625,9 +4939,9 @@
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="226"/>
-      <c r="G49" s="226"/>
-      <c r="H49" s="226"/>
+      <c r="F49" s="231"/>
+      <c r="G49" s="231"/>
+      <c r="H49" s="231"/>
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:36" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4636,13 +4950,13 @@
       <c r="D50" s="90"/>
       <c r="E50" s="91"/>
       <c r="F50" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G50" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H50" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
@@ -4943,31 +5257,31 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="237" t="s">
+      <c r="B60" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="238"/>
+      <c r="C60" s="235"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="237" t="s">
+      <c r="B61" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="238"/>
+      <c r="C61" s="235"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -4994,7 +5308,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="37"/>
       <c r="F63" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="65" t="s">
         <v>42</v>
@@ -5003,10 +5317,10 @@
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="243" t="s">
+      <c r="B64" s="236" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="243"/>
+      <c r="C64" s="236"/>
       <c r="D64" s="14"/>
       <c r="E64" s="5"/>
       <c r="F64" s="66" t="s">
@@ -5026,12 +5340,12 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="224"/>
-      <c r="C66" s="224"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="233"/>
       <c r="D66" s="14"/>
       <c r="E66" s="5"/>
       <c r="F66" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="65" t="s">
         <v>42</v>
@@ -5040,8 +5354,8 @@
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="242"/>
-      <c r="C67" s="242"/>
+      <c r="B67" s="232"/>
+      <c r="C67" s="232"/>
       <c r="D67" s="14"/>
       <c r="E67" s="5"/>
       <c r="F67" s="66" t="s">
@@ -5052,8 +5366,8 @@
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="242"/>
-      <c r="C68" s="242"/>
+      <c r="B68" s="232"/>
+      <c r="C68" s="232"/>
       <c r="D68" s="14"/>
       <c r="E68" s="5"/>
       <c r="F68" s="66"/>
@@ -5067,7 +5381,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="5"/>
       <c r="F69" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="65" t="s">
         <v>42</v>
@@ -5076,10 +5390,10 @@
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="224" t="s">
+      <c r="B70" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="224"/>
+      <c r="C70" s="233"/>
       <c r="D70" s="14"/>
       <c r="E70" s="5"/>
       <c r="F70" s="66" t="s">
@@ -5100,8 +5414,8 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="224"/>
-      <c r="C72" s="224"/>
+      <c r="B72" s="233"/>
+      <c r="C72" s="233"/>
       <c r="D72" s="14"/>
       <c r="E72" s="5"/>
       <c r="F72" s="64"/>
@@ -5110,8 +5424,8 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="242"/>
-      <c r="C73" s="242"/>
+      <c r="B73" s="232"/>
+      <c r="C73" s="232"/>
       <c r="D73" s="14"/>
       <c r="E73" s="5"/>
       <c r="F73" s="66"/>
@@ -5120,8 +5434,8 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="242"/>
-      <c r="C74" s="242"/>
+      <c r="B74" s="232"/>
+      <c r="C74" s="232"/>
       <c r="D74" s="14"/>
       <c r="E74" s="5"/>
       <c r="F74" s="10"/>
@@ -5140,10 +5454,10 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="224" t="s">
+      <c r="B76" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="224"/>
+      <c r="C76" s="233"/>
       <c r="D76" s="14"/>
       <c r="E76" s="5"/>
       <c r="F76" s="66"/>
@@ -5162,8 +5476,8 @@
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="224"/>
-      <c r="C78" s="224"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="233"/>
       <c r="D78" s="14"/>
       <c r="E78" s="37"/>
       <c r="F78" s="64"/>
@@ -5172,8 +5486,8 @@
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B79" s="242"/>
-      <c r="C79" s="242"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="232"/>
       <c r="D79" s="14"/>
       <c r="E79" s="5"/>
       <c r="F79" s="66"/>
@@ -5182,8 +5496,8 @@
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="242"/>
-      <c r="C80" s="242"/>
+      <c r="B80" s="232"/>
+      <c r="C80" s="232"/>
       <c r="D80" s="14"/>
       <c r="E80" s="5"/>
       <c r="F80" s="66"/>
@@ -5202,10 +5516,10 @@
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B82" s="224" t="s">
+      <c r="B82" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="224"/>
+      <c r="C82" s="233"/>
       <c r="D82" s="27"/>
       <c r="E82" s="5"/>
       <c r="F82" s="66"/>
@@ -5369,13 +5683,13 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
-      <c r="C102" s="244"/>
-      <c r="D102" s="244"/>
+      <c r="C102" s="227"/>
+      <c r="D102" s="227"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
-      <c r="C103" s="244"/>
-      <c r="D103" s="244"/>
+      <c r="C103" s="227"/>
+      <c r="D103" s="227"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
@@ -5394,11 +5708,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F43:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B79:C79"/>
@@ -5414,23 +5739,12 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F43:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="C102:D102"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
@@ -5448,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5459,88 +5773,88 @@
   <sheetData>
     <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J2" s="199" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J3" s="199" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="200"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="280" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="280"/>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
+      <c r="A5" s="252" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="281" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="281"/>
+      <c r="A6" s="253" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="201" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="245" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="245" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="246"/>
-      <c r="H7" s="247"/>
-      <c r="I7" s="245" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="247"/>
+        <v>69</v>
+      </c>
+      <c r="B7" s="278" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="279"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="278" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="279"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="278" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="280"/>
       <c r="K7" s="202" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="204"/>
-      <c r="B8" s="248" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="251" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="252"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="251" t="s">
+      <c r="B8" s="281" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="282"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="284" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="285"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="284" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="253"/>
+      <c r="J8" s="286"/>
       <c r="K8" s="205"/>
       <c r="L8" s="203"/>
     </row>
@@ -5548,21 +5862,21 @@
       <c r="A9" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="254" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="258"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="259"/>
+      <c r="B9" s="263" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="267"/>
+      <c r="H9" s="268"/>
+      <c r="I9" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="268"/>
       <c r="K9" s="205"/>
       <c r="L9" s="203"/>
     </row>
@@ -5570,121 +5884,121 @@
       <c r="A10" s="206">
         <v>1</v>
       </c>
-      <c r="B10" s="254" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="258"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="259"/>
+      <c r="B10" s="263" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="267"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="268"/>
       <c r="K10" s="205"/>
       <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="206"/>
-      <c r="B11" s="260" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="258"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="259"/>
+      <c r="B11" s="269" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="270"/>
+      <c r="D11" s="270"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="267"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="268"/>
       <c r="K11" s="205"/>
       <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="206"/>
-      <c r="B12" s="260" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="261"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="258"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="259"/>
+      <c r="B12" s="269" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="270"/>
+      <c r="D12" s="270"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="267"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="268"/>
       <c r="K12" s="205"/>
       <c r="L12" s="203"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="206"/>
-      <c r="B13" s="260" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="258"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="259"/>
+      <c r="B13" s="269" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="270"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="267"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="268"/>
       <c r="K13" s="205"/>
       <c r="L13" s="203"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="206"/>
-      <c r="B14" s="260" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="258"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="259"/>
+      <c r="B14" s="269" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="270"/>
+      <c r="D14" s="270"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="267"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="268"/>
       <c r="K14" s="205"/>
       <c r="L14" s="203"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="206"/>
-      <c r="B15" s="260" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="261"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="257" t="s">
+      <c r="B15" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="258"/>
-      <c r="H15" s="259"/>
-      <c r="I15" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="259"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="271"/>
+      <c r="F15" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="268"/>
       <c r="K15" s="205"/>
       <c r="L15" s="203"/>
     </row>
@@ -5692,21 +6006,21 @@
       <c r="A16" s="206">
         <v>2</v>
       </c>
-      <c r="B16" s="254" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="255"/>
-      <c r="D16" s="255"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="258"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="259"/>
+      <c r="B16" s="263" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="267"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="268"/>
       <c r="K16" s="205"/>
       <c r="L16" s="203"/>
     </row>
@@ -5714,21 +6028,21 @@
       <c r="A17" s="207">
         <v>3</v>
       </c>
-      <c r="B17" s="263" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="266" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="267"/>
-      <c r="H17" s="268"/>
-      <c r="I17" s="266" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="268"/>
+      <c r="B17" s="272" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="273"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="275" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="276"/>
+      <c r="H17" s="277"/>
+      <c r="I17" s="275" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="277"/>
       <c r="K17" s="208"/>
       <c r="L17" s="203"/>
     </row>
@@ -5736,21 +6050,21 @@
       <c r="A18" s="206">
         <v>4</v>
       </c>
-      <c r="B18" s="254" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="255"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="258"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="259"/>
+      <c r="B18" s="263" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="267"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="268"/>
       <c r="K18" s="205"/>
       <c r="L18" s="203"/>
     </row>
@@ -5758,21 +6072,21 @@
       <c r="A19" s="206">
         <v>5</v>
       </c>
-      <c r="B19" s="254" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="255"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="258"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="259"/>
+      <c r="B19" s="263" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="267"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="268"/>
       <c r="K19" s="205"/>
       <c r="L19" s="203"/>
     </row>
@@ -5780,21 +6094,21 @@
       <c r="A20" s="206">
         <v>6</v>
       </c>
-      <c r="B20" s="254" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="255"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="258"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="259"/>
+      <c r="B20" s="263" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="264"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="267"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="268"/>
       <c r="K20" s="205"/>
       <c r="L20" s="203"/>
     </row>
@@ -5802,21 +6116,21 @@
       <c r="A21" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="254" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="255"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="258"/>
-      <c r="H21" s="259"/>
-      <c r="I21" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="259"/>
+      <c r="B21" s="263" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="264"/>
+      <c r="D21" s="264"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="267"/>
+      <c r="H21" s="268"/>
+      <c r="I21" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="268"/>
       <c r="K21" s="205"/>
       <c r="L21" s="203"/>
     </row>
@@ -5824,21 +6138,21 @@
       <c r="A22" s="206">
         <v>1</v>
       </c>
-      <c r="B22" s="254" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="255"/>
-      <c r="D22" s="255"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="258"/>
-      <c r="H22" s="259"/>
-      <c r="I22" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="259"/>
+      <c r="B22" s="263" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="264"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="267"/>
+      <c r="H22" s="268"/>
+      <c r="I22" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="268"/>
       <c r="K22" s="205"/>
       <c r="L22" s="203"/>
     </row>
@@ -5846,21 +6160,21 @@
       <c r="A23" s="206">
         <v>2</v>
       </c>
-      <c r="B23" s="254" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="255"/>
-      <c r="D23" s="255"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="258"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="259"/>
+      <c r="B23" s="263" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="264"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="267"/>
+      <c r="H23" s="268"/>
+      <c r="I23" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="268"/>
       <c r="K23" s="205"/>
       <c r="L23" s="203"/>
     </row>
@@ -5868,21 +6182,21 @@
       <c r="A24" s="206">
         <v>3</v>
       </c>
-      <c r="B24" s="254" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="255"/>
-      <c r="D24" s="255"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="258"/>
-      <c r="H24" s="259"/>
-      <c r="I24" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="259"/>
+      <c r="B24" s="263" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="264"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="267"/>
+      <c r="H24" s="268"/>
+      <c r="I24" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="268"/>
       <c r="K24" s="205"/>
       <c r="L24" s="203"/>
     </row>
@@ -5890,21 +6204,21 @@
       <c r="A25" s="206">
         <v>4</v>
       </c>
-      <c r="B25" s="254" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="255"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="258"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="259"/>
+      <c r="B25" s="263" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="264"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="267"/>
+      <c r="H25" s="268"/>
+      <c r="I25" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="268"/>
       <c r="K25" s="205"/>
       <c r="L25" s="203"/>
     </row>
@@ -5912,21 +6226,21 @@
       <c r="A26" s="206">
         <v>5</v>
       </c>
-      <c r="B26" s="254" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="255"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="258"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="259"/>
+      <c r="B26" s="263" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="264"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="265"/>
+      <c r="F26" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="267"/>
+      <c r="H26" s="268"/>
+      <c r="I26" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="268"/>
       <c r="K26" s="205"/>
       <c r="L26" s="203"/>
     </row>
@@ -5934,41 +6248,41 @@
       <c r="A27" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="254" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="255"/>
-      <c r="D27" s="255"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="257" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="258"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="257" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="259"/>
+      <c r="B27" s="263" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="264"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="265"/>
+      <c r="F27" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="267"/>
+      <c r="H27" s="268"/>
+      <c r="I27" s="266" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="268"/>
       <c r="K27" s="205"/>
       <c r="L27" s="203"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="204"/>
-      <c r="B28" s="260" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="261"/>
-      <c r="D28" s="261"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="257" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="258"/>
-      <c r="H28" s="259"/>
-      <c r="I28" s="257" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="259"/>
+      <c r="B28" s="269" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="270"/>
+      <c r="D28" s="270"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="266" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="267"/>
+      <c r="H28" s="268"/>
+      <c r="I28" s="266" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="268"/>
       <c r="K28" s="205"/>
       <c r="L28" s="203"/>
     </row>
@@ -5988,157 +6302,157 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="209"/>
-      <c r="B30" s="269" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="270"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="272" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="273"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="272" t="s">
+      <c r="B30" s="255" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="257"/>
+      <c r="F30" s="258" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="259"/>
+      <c r="H30" s="260"/>
+      <c r="I30" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="274"/>
+      <c r="J30" s="260"/>
       <c r="K30" s="210"/>
       <c r="L30" s="203"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="275" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="275"/>
-      <c r="D31" s="284"/>
-      <c r="E31" s="285"/>
-      <c r="F31" s="285"/>
-      <c r="G31" s="277" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="277"/>
-      <c r="I31" s="277"/>
-      <c r="J31" s="277"/>
-      <c r="K31" s="277"/>
-      <c r="L31" s="277"/>
+      <c r="A31" s="261" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="261"/>
+      <c r="D31" s="247"/>
+      <c r="E31" s="248"/>
+      <c r="F31" s="248"/>
+      <c r="G31" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="249"/>
+      <c r="K31" s="249"/>
+      <c r="L31" s="249"/>
     </row>
     <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="276" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="276"/>
-      <c r="D32" s="283"/>
-      <c r="E32" s="277"/>
-      <c r="F32" s="277"/>
-      <c r="G32" s="277" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="277"/>
-      <c r="I32" s="277"/>
-      <c r="J32" s="277"/>
-      <c r="K32" s="277"/>
-      <c r="L32" s="277"/>
+      <c r="A32" s="262" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="262"/>
+      <c r="D32" s="245"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="249"/>
+      <c r="K32" s="249"/>
+      <c r="L32" s="249"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="276" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="276"/>
+      <c r="A33" s="262" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="262"/>
       <c r="D33" s="222"/>
       <c r="F33" s="222"/>
       <c r="G33" s="222"/>
       <c r="H33" s="222" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I33" s="222"/>
-      <c r="J33" s="278" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="278"/>
-      <c r="L33" s="278"/>
+      <c r="J33" s="246" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" s="246"/>
+      <c r="L33" s="246"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="276" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="276"/>
+      <c r="A34" s="262" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="262"/>
       <c r="D34" s="222"/>
       <c r="F34" s="222"/>
       <c r="G34" s="222"/>
       <c r="H34" s="222"/>
       <c r="I34" s="222"/>
-      <c r="J34" s="278"/>
-      <c r="K34" s="278"/>
-      <c r="L34" s="278"/>
+      <c r="J34" s="246"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="246"/>
     </row>
     <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="279"/>
-      <c r="B35" s="279"/>
-      <c r="D35" s="282" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" s="282"/>
+      <c r="A35" s="251"/>
+      <c r="B35" s="251"/>
+      <c r="D35" s="254" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="254"/>
       <c r="F35" s="222"/>
       <c r="G35" s="222"/>
       <c r="H35" s="222"/>
       <c r="I35" s="222"/>
-      <c r="J35" s="278"/>
-      <c r="K35" s="278"/>
-      <c r="L35" s="278"/>
+      <c r="J35" s="246"/>
+      <c r="K35" s="246"/>
+      <c r="L35" s="246"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="279"/>
-      <c r="B36" s="279"/>
+      <c r="A36" s="251"/>
+      <c r="B36" s="251"/>
       <c r="D36" s="222"/>
       <c r="F36" s="222"/>
       <c r="G36" s="222"/>
       <c r="H36" s="222"/>
       <c r="I36" s="222"/>
-      <c r="J36" s="278"/>
-      <c r="K36" s="278"/>
-      <c r="L36" s="278"/>
+      <c r="J36" s="246"/>
+      <c r="K36" s="246"/>
+      <c r="L36" s="246"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="279"/>
-      <c r="B37" s="279"/>
+      <c r="A37" s="251"/>
+      <c r="B37" s="251"/>
       <c r="D37" s="212"/>
       <c r="F37" s="222"/>
       <c r="G37" s="222"/>
       <c r="H37" s="222"/>
       <c r="I37" s="222"/>
-      <c r="J37" s="278"/>
-      <c r="K37" s="278"/>
-      <c r="L37" s="278"/>
+      <c r="J37" s="246"/>
+      <c r="K37" s="246"/>
+      <c r="L37" s="246"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="279"/>
-      <c r="B38" s="279"/>
+      <c r="A38" s="251"/>
+      <c r="B38" s="251"/>
       <c r="D38" s="211"/>
       <c r="F38" s="222"/>
       <c r="G38" s="222"/>
       <c r="H38" s="222"/>
       <c r="I38" s="222"/>
-      <c r="J38" s="278"/>
-      <c r="K38" s="278"/>
-      <c r="L38" s="278"/>
+      <c r="J38" s="246"/>
+      <c r="K38" s="246"/>
+      <c r="L38" s="246"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="211"/>
       <c r="D39" s="212" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F39" s="222"/>
       <c r="G39" s="222"/>
       <c r="H39" s="222" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I39" s="213"/>
-      <c r="J39" s="278" t="s">
-        <v>148</v>
-      </c>
-      <c r="K39" s="278"/>
-      <c r="L39" s="278"/>
+      <c r="J39" s="246" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39" s="246"/>
+      <c r="L39" s="246"/>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="211"/>
@@ -6149,14 +6463,14 @@
       <c r="F40" s="222"/>
       <c r="G40" s="222"/>
       <c r="H40" s="222" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I40" s="213"/>
-      <c r="J40" s="278" t="s">
-        <v>154</v>
-      </c>
-      <c r="K40" s="278"/>
-      <c r="L40" s="278"/>
+      <c r="J40" s="246" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" s="246"/>
+      <c r="L40" s="246"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
       <c r="D41" s="212"/>
@@ -6165,10 +6479,10 @@
       <c r="D42" s="211"/>
     </row>
     <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="283" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="283"/>
+      <c r="D43" s="245" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="245"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C44">
@@ -6176,23 +6490,82 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D47" s="283" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="283"/>
+      <c r="D47" s="245" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="245"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -6209,72 +6582,13 @@
     <mergeCell ref="J33:L38"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6285,8 +6599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6306,7 +6620,7 @@
       <c r="B1" s="197"/>
       <c r="C1" s="198"/>
       <c r="D1" s="103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
@@ -6314,43 +6628,43 @@
       <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="287" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
+      <c r="A2" s="292" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="235" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
+      <c r="A3" s="237" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="235" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
+      <c r="A4" s="237" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104"/>
@@ -6363,37 +6677,37 @@
       <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:9" s="106" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="288" t="s">
+      <c r="A6" s="293" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="295" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="297" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="299"/>
+    </row>
+    <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="294"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="296"/>
+      <c r="D7" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="290" t="s">
+      <c r="E7" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="292" t="s">
+      <c r="G7" s="109" t="s">
         <v>74</v>
-      </c>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="294"/>
-    </row>
-    <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="289"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="109" t="s">
-        <v>77</v>
       </c>
       <c r="H7" s="109"/>
       <c r="I7" s="110"/>
@@ -6427,11 +6741,11 @@
     </row>
     <row r="9" spans="1:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="118" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="119"/>
       <c r="C9" s="120" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="121"/>
       <c r="E9" s="122"/>
@@ -6452,26 +6766,26 @@
       <c r="I10" s="131"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="295"/>
-      <c r="B11" s="296"/>
-      <c r="C11" s="297"/>
+      <c r="A11" s="300"/>
+      <c r="B11" s="301"/>
+      <c r="C11" s="302"/>
       <c r="D11" s="132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -6489,13 +6803,13 @@
       <c r="A13" s="141">
         <v>1</v>
       </c>
-      <c r="B13" s="298" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="299"/>
+      <c r="B13" s="287" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="288"/>
       <c r="D13" s="144"/>
       <c r="E13" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F13" s="144"/>
       <c r="G13" s="144"/>
@@ -6507,12 +6821,12 @@
         <v>2</v>
       </c>
       <c r="B14" s="142" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="143"/>
       <c r="D14" s="144"/>
       <c r="E14" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F14" s="144"/>
       <c r="G14" s="144"/>
@@ -6523,13 +6837,13 @@
       <c r="A15" s="141">
         <v>3</v>
       </c>
-      <c r="B15" s="298" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="299"/>
+      <c r="B15" s="287" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="288"/>
       <c r="D15" s="144"/>
       <c r="E15" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F15" s="144"/>
       <c r="G15" s="144"/>
@@ -6540,13 +6854,13 @@
       <c r="A16" s="141">
         <v>4</v>
       </c>
-      <c r="B16" s="298" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="299"/>
+      <c r="B16" s="287" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="288"/>
       <c r="D16" s="144"/>
       <c r="E16" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F16" s="144"/>
       <c r="G16" s="144"/>
@@ -6557,13 +6871,13 @@
       <c r="A17" s="146">
         <v>5</v>
       </c>
-      <c r="B17" s="300" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="301"/>
+      <c r="B17" s="303" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="304"/>
       <c r="D17" s="144"/>
       <c r="E17" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17" s="144"/>
       <c r="G17" s="144"/>
@@ -6574,13 +6888,13 @@
       <c r="A18" s="141">
         <v>6</v>
       </c>
-      <c r="B18" s="302" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="303"/>
+      <c r="B18" s="305" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="306"/>
       <c r="D18" s="144"/>
       <c r="E18" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F18" s="144"/>
       <c r="G18" s="144"/>
@@ -6591,13 +6905,13 @@
       <c r="A19" s="141">
         <v>7</v>
       </c>
-      <c r="B19" s="304" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="305"/>
+      <c r="B19" s="307" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="308"/>
       <c r="D19" s="144"/>
       <c r="E19" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F19" s="144"/>
       <c r="G19" s="144"/>
@@ -6608,11 +6922,11 @@
       <c r="A20" s="141">
         <v>8</v>
       </c>
-      <c r="B20" s="298"/>
-      <c r="C20" s="299"/>
+      <c r="B20" s="287"/>
+      <c r="C20" s="288"/>
       <c r="D20" s="144"/>
       <c r="E20" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F20" s="144"/>
       <c r="G20" s="144"/>
@@ -6623,11 +6937,11 @@
       <c r="A21" s="141">
         <v>9</v>
       </c>
-      <c r="B21" s="298"/>
-      <c r="C21" s="299"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="288"/>
       <c r="D21" s="144"/>
       <c r="E21" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F21" s="144"/>
       <c r="G21" s="144"/>
@@ -6642,7 +6956,7 @@
       <c r="C22" s="143"/>
       <c r="D22" s="144"/>
       <c r="E22" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F22" s="144"/>
       <c r="G22" s="144"/>
@@ -6657,7 +6971,7 @@
       <c r="C23" s="148"/>
       <c r="D23" s="144"/>
       <c r="E23" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F23" s="144"/>
       <c r="G23" s="144"/>
@@ -6672,7 +6986,7 @@
       <c r="C24" s="148"/>
       <c r="D24" s="144"/>
       <c r="E24" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F24" s="144"/>
       <c r="G24" s="144"/>
@@ -6687,7 +7001,7 @@
       <c r="C25" s="143"/>
       <c r="D25" s="144"/>
       <c r="E25" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25" s="144"/>
       <c r="G25" s="144"/>
@@ -6702,7 +7016,7 @@
       <c r="C26" s="143"/>
       <c r="D26" s="144"/>
       <c r="E26" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="144"/>
@@ -6717,7 +7031,7 @@
       <c r="C27" s="143"/>
       <c r="D27" s="144"/>
       <c r="E27" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F27" s="144"/>
       <c r="G27" s="144"/>
@@ -6732,7 +7046,7 @@
       <c r="C28" s="143"/>
       <c r="D28" s="144"/>
       <c r="E28" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F28" s="144"/>
       <c r="G28" s="144"/>
@@ -6747,7 +7061,7 @@
       <c r="C29" s="143"/>
       <c r="D29" s="144"/>
       <c r="E29" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F29" s="144"/>
       <c r="G29" s="144"/>
@@ -6762,7 +7076,7 @@
       <c r="C30" s="143"/>
       <c r="D30" s="144"/>
       <c r="E30" s="144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F30" s="144"/>
       <c r="G30" s="144"/>
@@ -6771,34 +7085,34 @@
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="141" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="142"/>
       <c r="C31" s="143"/>
       <c r="D31" s="150" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" s="150" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F31" s="150" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H31" s="150" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I31" s="151" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="186"/>
       <c r="C32" s="162" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D32" s="189"/>
       <c r="E32" s="190" t="s">
@@ -6822,11 +7136,11 @@
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="181" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="182"/>
       <c r="C34" s="180" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="152"/>
       <c r="E34" s="152"/>
@@ -6841,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="154" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D35" s="144"/>
       <c r="E35" s="144" t="s">
@@ -6858,7 +7172,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="156" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D36" s="144"/>
       <c r="E36" s="144" t="s">
@@ -6875,7 +7189,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="223" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D37" s="144"/>
       <c r="E37" s="144"/>
@@ -6890,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="156" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D38" s="144"/>
       <c r="E38" s="144"/>
@@ -6905,7 +7219,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="156" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D39" s="144"/>
       <c r="E39" s="144"/>
@@ -6920,7 +7234,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="156" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D40" s="144"/>
       <c r="E40" s="144"/>
@@ -6935,7 +7249,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="156" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D41" s="144"/>
       <c r="E41" s="144"/>
@@ -6950,7 +7264,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="156" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D42" s="144"/>
       <c r="E42" s="144"/>
@@ -6965,7 +7279,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="156" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D43" s="144"/>
       <c r="E43" s="144"/>
@@ -7004,10 +7318,10 @@
       <c r="A46" s="149"/>
       <c r="B46" s="157"/>
       <c r="C46" s="159" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" s="150" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E46" s="150"/>
       <c r="F46" s="150"/>
@@ -7019,7 +7333,7 @@
       <c r="A47" s="160"/>
       <c r="B47" s="161"/>
       <c r="C47" s="194" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D47" s="163"/>
       <c r="E47" s="163" t="s">
@@ -7056,11 +7370,11 @@
       <c r="A50" s="40"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
-      <c r="D50" s="227" t="s">
+      <c r="D50" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="228"/>
-      <c r="F50" s="229"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="241"/>
       <c r="H50" s="167"/>
       <c r="I50" s="167"/>
     </row>
@@ -7080,28 +7394,28 @@
       <c r="A52" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="233" t="s">
+      <c r="B52" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="286"/>
+      <c r="C52" s="309"/>
       <c r="D52" s="100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E52" s="100" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F52" s="100" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H52" s="167"/>
       <c r="I52" s="167"/>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
-      <c r="B53" s="233" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="286"/>
+      <c r="B53" s="228" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="309"/>
       <c r="D53" s="102"/>
       <c r="E53" s="102"/>
       <c r="F53" s="101"/>
@@ -7113,13 +7427,13 @@
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E54" s="192" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="167"/>
       <c r="I54" s="167"/>
@@ -7139,13 +7453,13 @@
       <c r="B56" s="89"/>
       <c r="C56" s="90"/>
       <c r="D56" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F56" s="195" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H56" s="167"/>
       <c r="I56" s="167"/>
@@ -7263,13 +7577,13 @@
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="167"/>
-      <c r="E65" s="307" t="s">
-        <v>92</v>
-      </c>
-      <c r="F65" s="307"/>
-      <c r="G65" s="307"/>
-      <c r="H65" s="307"/>
-      <c r="I65" s="307"/>
+      <c r="E65" s="289" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="289"/>
+      <c r="G65" s="289"/>
+      <c r="H65" s="289"/>
+      <c r="I65" s="289"/>
     </row>
     <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="165"/>
@@ -7291,13 +7605,13 @@
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="169"/>
-      <c r="E67" s="308" t="s">
-        <v>93</v>
-      </c>
-      <c r="F67" s="308"/>
-      <c r="G67" s="308"/>
-      <c r="H67" s="308"/>
-      <c r="I67" s="308"/>
+      <c r="E67" s="290" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="290"/>
+      <c r="G67" s="290"/>
+      <c r="H67" s="290"/>
+      <c r="I67" s="290"/>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="165"/>
@@ -7306,13 +7620,13 @@
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="169"/>
-      <c r="E68" s="308" t="s">
-        <v>94</v>
-      </c>
-      <c r="F68" s="308"/>
-      <c r="G68" s="308"/>
-      <c r="H68" s="308"/>
-      <c r="I68" s="308"/>
+      <c r="E68" s="290" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="290"/>
+      <c r="G68" s="290"/>
+      <c r="H68" s="290"/>
+      <c r="I68" s="290"/>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="165"/>
@@ -7336,8 +7650,8 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="165"/>
-      <c r="B71" s="224"/>
-      <c r="C71" s="224"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="233"/>
       <c r="D71" s="169"/>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -7347,48 +7661,48 @@
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="172" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="243" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="236" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="243"/>
+      <c r="C72" s="236"/>
       <c r="D72" s="174" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E72" s="175">
         <v>1</v>
       </c>
       <c r="F72" s="176"/>
       <c r="G72" s="176" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H72" s="176" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I72" s="173"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="172"/>
-      <c r="B73" s="242"/>
-      <c r="C73" s="242"/>
+      <c r="B73" s="232"/>
+      <c r="C73" s="232"/>
       <c r="D73" s="174"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="176" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H73" s="176"/>
       <c r="I73" s="173"/>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="172" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="66"/>
       <c r="D74" s="174" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E74" s="175">
         <v>2</v>
@@ -7397,15 +7711,15 @@
       <c r="G74" s="176"/>
       <c r="H74" s="176"/>
       <c r="I74" s="173" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="172"/>
-      <c r="B75" s="224" t="s">
+      <c r="B75" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="224"/>
+      <c r="C75" s="233"/>
       <c r="D75" s="174"/>
       <c r="E75" s="175"/>
       <c r="F75" s="176"/>
@@ -7415,27 +7729,27 @@
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="177" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="66"/>
       <c r="D76" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E76" s="179">
         <v>3</v>
       </c>
-      <c r="F76" s="306"/>
-      <c r="G76" s="306"/>
+      <c r="F76" s="291"/>
+      <c r="G76" s="291"/>
       <c r="H76" s="178" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I76" s="178"/>
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="177"/>
-      <c r="B77" s="224"/>
-      <c r="C77" s="224"/>
+      <c r="B77" s="233"/>
+      <c r="C77" s="233"/>
       <c r="D77" s="178"/>
       <c r="E77" s="179"/>
       <c r="F77" s="178"/>
@@ -7445,12 +7759,12 @@
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="177" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="242"/>
-      <c r="C78" s="242"/>
+        <v>66</v>
+      </c>
+      <c r="B78" s="232"/>
+      <c r="C78" s="232"/>
       <c r="D78" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E78" s="179">
         <v>4</v>
@@ -7459,70 +7773,70 @@
       <c r="G78" s="178"/>
       <c r="H78" s="178"/>
       <c r="I78" s="178" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="177"/>
-      <c r="B79" s="242"/>
-      <c r="C79" s="242"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="232"/>
       <c r="D79" s="178"/>
       <c r="E79" s="179"/>
       <c r="F79" s="178"/>
       <c r="G79" s="178"/>
       <c r="H79" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I79" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="177" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="66"/>
       <c r="D80" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E80" s="179">
         <v>5</v>
       </c>
-      <c r="F80" s="306"/>
-      <c r="G80" s="306"/>
+      <c r="F80" s="291"/>
+      <c r="G80" s="291"/>
       <c r="H80" s="178" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I80" s="178"/>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="177" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="224" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="224"/>
+      <c r="C81" s="233"/>
       <c r="D81" s="178"/>
       <c r="E81" s="177"/>
       <c r="F81" s="178"/>
       <c r="G81" s="178"/>
       <c r="H81" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I81" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="177" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="35"/>
       <c r="D82" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E82" s="179">
         <v>6</v>
@@ -7531,53 +7845,53 @@
       <c r="G82" s="178"/>
       <c r="H82" s="178"/>
       <c r="I82" s="178" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="177"/>
-      <c r="B83" s="224"/>
-      <c r="C83" s="224"/>
+      <c r="B83" s="233"/>
+      <c r="C83" s="233"/>
       <c r="D83" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E83" s="179" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F83" s="178"/>
       <c r="G83" s="178"/>
       <c r="H83" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I83" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="177" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="242"/>
-      <c r="C84" s="242"/>
+        <v>66</v>
+      </c>
+      <c r="B84" s="232"/>
+      <c r="C84" s="232"/>
       <c r="D84" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E84" s="179">
         <v>7</v>
       </c>
-      <c r="F84" s="306"/>
-      <c r="G84" s="306"/>
+      <c r="F84" s="291"/>
+      <c r="G84" s="291"/>
       <c r="H84" s="178" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I84" s="178"/>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="177"/>
-      <c r="B85" s="242"/>
-      <c r="C85" s="242"/>
+      <c r="B85" s="232"/>
+      <c r="C85" s="232"/>
       <c r="D85" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E85" s="178"/>
       <c r="F85" s="179"/>
@@ -7598,10 +7912,10 @@
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="177"/>
-      <c r="B87" s="224" t="s">
+      <c r="B87" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="224"/>
+      <c r="C87" s="233"/>
       <c r="D87" s="178"/>
       <c r="E87" s="178"/>
       <c r="F87" s="178"/>
@@ -7649,7 +7963,7 @@
       <c r="D91" s="178"/>
       <c r="E91" s="178"/>
       <c r="F91" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G91" s="178"/>
       <c r="H91" s="178"/>
@@ -7674,7 +7988,7 @@
       <c r="E93" s="178"/>
       <c r="F93" s="178"/>
       <c r="G93" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H93" s="178"/>
       <c r="I93" s="178"/>
@@ -7750,7 +8064,7 @@
       <c r="B100" s="178"/>
       <c r="C100" s="178"/>
       <c r="D100" s="178" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E100" s="178"/>
       <c r="F100" s="178"/>
@@ -7793,21 +8107,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="F84:G84"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
@@ -7819,16 +8130,19 @@
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F80:G80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/templates/12.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
+++ b/templates/12.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="255" windowWidth="9780" windowHeight="5835" tabRatio="602" activeTab="1"/>
+    <workbookView xWindow="10590" yWindow="615" windowWidth="9780" windowHeight="5835" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="BA Pembukaan Penawaran Harga" sheetId="6" r:id="rId1"/>
@@ -519,12 +519,6 @@
     <t>TENAGA AHLI YANG DITUGASKAN</t>
   </si>
   <si>
-    <t xml:space="preserve">      .......,  ........ 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PANITIA PENGADAAN BARANG / JASA   ....</t>
-  </si>
-  <si>
     <t xml:space="preserve">          PT PLN (PERSERO KANTOR PUSAT </t>
   </si>
   <si>
@@ -1174,6 +1168,34 @@
       <t xml:space="preserve"> #namapengadaan#</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      Jakarta, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgllengkap#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          PANITIA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1185,7 +1207,7 @@
     <numFmt numFmtId="164" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1416,13 +1438,25 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="100">
@@ -2643,7 +2677,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2680,9 +2714,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2765,7 +2796,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3005,21 +3035,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3109,9 +3131,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3140,6 +3159,64 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3152,182 +3229,143 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3335,15 +3373,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3395,7 +3424,35 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4074,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ106"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4106,38 +4163,38 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="30"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="237" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4153,15 +4210,15 @@
     </row>
     <row r="8" spans="2:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="238" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="31"/>
+      <c r="C8" s="226" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4176,320 +4233,320 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="239" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="240"/>
-      <c r="H10" s="241"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="231"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="43"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="244"/>
+      <c r="F11" s="232"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="234"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="228" t="s">
+      <c r="C12" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="224" t="s">
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="239" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="239" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="224" t="s">
+      <c r="H12" s="239" t="s">
         <v>57</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="225"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="240"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="240"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
-      <c r="C14" s="228" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="226"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
       <c r="I14" s="12"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="45"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="230" t="s">
+      <c r="F15" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="230" t="s">
+      <c r="G15" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="230" t="s">
+      <c r="H15" s="237" t="s">
         <v>59</v>
       </c>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="231"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="231"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="46"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="84" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="82" t="s">
         <v>58</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="47"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="16"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="46"/>
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="43"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="17"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="56">
+      <c r="B20" s="55">
         <v>1</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="77"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="14"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="56"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="77"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="56"/>
-      <c r="C22" s="54" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="77"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="56">
+      <c r="B23" s="55">
         <v>2</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="77"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="56">
+      <c r="B24" s="55">
         <v>3</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="77"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="14"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="56">
+      <c r="B25" s="55">
         <v>4</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="77"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="56">
+      <c r="B26" s="55">
         <v>5</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="77"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="75"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="56">
+      <c r="B27" s="55">
         <v>6</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="77"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="75"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="43"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="7"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="45"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="2:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="48"/>
-      <c r="C29" s="50" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="49" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="78" t="s">
+      <c r="H29" s="76" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -4497,110 +4554,110 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="45"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="14"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="56"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="77"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="56">
+      <c r="B32" s="55">
         <v>1</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="62" t="s">
+      <c r="D32" s="54"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="75" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="56">
+      <c r="B33" s="55">
         <v>2</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="62" t="s">
+      <c r="D33" s="54"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="77" t="s">
+      <c r="H33" s="75" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="56">
+      <c r="B34" s="55">
         <v>3</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="62" t="s">
+      <c r="D34" s="54"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="77" t="s">
+      <c r="H34" s="75" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="2:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
-      <c r="C35" s="53"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="6"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="45"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="44"/>
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="48"/>
-      <c r="C36" s="50" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="49" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="70" t="s">
+      <c r="F36" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="70" t="s">
+      <c r="G36" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="78" t="s">
+      <c r="H36" s="76" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="10"/>
@@ -4632,13 +4689,13 @@
       <c r="AJ36" s="20"/>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
       <c r="J37" s="10"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
@@ -4812,13 +4869,13 @@
       <c r="AJ41" s="20"/>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
       <c r="J42" s="10"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -4848,127 +4905,127 @@
       <c r="AJ42" s="20"/>
     </row>
     <row r="43" spans="2:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="40"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="239" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="241"/>
+      <c r="G43" s="230"/>
+      <c r="H43" s="231"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="2:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="242"/>
-      <c r="G44" s="243"/>
-      <c r="H44" s="244"/>
+      <c r="F44" s="232"/>
+      <c r="G44" s="233"/>
+      <c r="H44" s="234"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="228" t="s">
+      <c r="C45" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="229"/>
-      <c r="E45" s="229"/>
-      <c r="F45" s="224" t="s">
+      <c r="D45" s="236"/>
+      <c r="E45" s="236"/>
+      <c r="F45" s="239" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="224" t="s">
+      <c r="G45" s="239" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="224" t="s">
+      <c r="H45" s="239" t="s">
         <v>57</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="228"/>
-      <c r="D46" s="229"/>
-      <c r="E46" s="229"/>
-      <c r="F46" s="225"/>
-      <c r="G46" s="225"/>
-      <c r="H46" s="225"/>
+      <c r="C46" s="235"/>
+      <c r="D46" s="236"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="240"/>
+      <c r="G46" s="240"/>
+      <c r="H46" s="240"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="45"/>
-      <c r="C47" s="228" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="229"/>
-      <c r="E47" s="229"/>
-      <c r="F47" s="226"/>
-      <c r="G47" s="226"/>
-      <c r="H47" s="226"/>
+      <c r="D47" s="236"/>
+      <c r="E47" s="236"/>
+      <c r="F47" s="241"/>
+      <c r="G47" s="241"/>
+      <c r="H47" s="241"/>
       <c r="I47" s="12"/>
       <c r="J47" s="9"/>
     </row>
     <row r="48" spans="2:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="45"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="230" t="s">
+      <c r="F48" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="230" t="s">
+      <c r="G48" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="230" t="s">
+      <c r="H48" s="237" t="s">
         <v>59</v>
       </c>
       <c r="J48" s="9"/>
     </row>
     <row r="49" spans="2:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="45"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="231"/>
-      <c r="G49" s="231"/>
-      <c r="H49" s="231"/>
+      <c r="F49" s="238"/>
+      <c r="G49" s="238"/>
+      <c r="H49" s="238"/>
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:36" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="88"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="84" t="s">
+      <c r="B50" s="86"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="84" t="s">
+      <c r="G50" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="H50" s="84" t="s">
+      <c r="H50" s="82" t="s">
         <v>60</v>
       </c>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B51" s="43"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="79"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="77"/>
       <c r="J51" s="10"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
@@ -4998,7 +5055,7 @@
       <c r="AJ51" s="20"/>
     </row>
     <row r="52" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -5006,13 +5063,13 @@
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="86" t="s">
+      <c r="F52" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="86" t="s">
+      <c r="G52" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="87" t="s">
+      <c r="H52" s="85" t="s">
         <v>22</v>
       </c>
       <c r="J52" s="10"/>
@@ -5044,15 +5101,15 @@
       <c r="AJ52" s="20"/>
     </row>
     <row r="53" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B53" s="56"/>
-      <c r="C53" s="54" t="s">
+      <c r="B53" s="55"/>
+      <c r="C53" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="81"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="79"/>
       <c r="J53" s="12"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
@@ -5082,15 +5139,15 @@
       <c r="AJ53" s="20"/>
     </row>
     <row r="54" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B54" s="56"/>
-      <c r="C54" s="54" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="85"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="83"/>
       <c r="J54" s="12"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
@@ -5120,15 +5177,15 @@
       <c r="AJ54" s="20"/>
     </row>
     <row r="55" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B55" s="56"/>
-      <c r="C55" s="54" t="s">
+      <c r="B55" s="55"/>
+      <c r="C55" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
       <c r="J55" s="12"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
@@ -5158,15 +5215,15 @@
       <c r="AJ55" s="20"/>
     </row>
     <row r="56" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="49"/>
-      <c r="C56" s="51" t="s">
+      <c r="B56" s="48"/>
+      <c r="C56" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
       <c r="J56" s="12"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
@@ -5196,19 +5253,19 @@
       <c r="AJ56" s="20"/>
     </row>
     <row r="57" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="48"/>
-      <c r="C57" s="50" t="s">
+      <c r="B57" s="47"/>
+      <c r="C57" s="49" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="70" t="s">
+      <c r="F57" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="70" t="s">
+      <c r="G57" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="78" t="s">
+      <c r="H57" s="76" t="s">
         <v>18</v>
       </c>
       <c r="J57" s="10"/>
@@ -5250,10 +5307,10 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="75"/>
+      <c r="C59" s="73"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
@@ -5264,10 +5321,10 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="234" t="s">
+      <c r="B60" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="235"/>
+      <c r="C60" s="228"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
@@ -5278,10 +5335,10 @@
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="234" t="s">
+      <c r="B61" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="235"/>
+      <c r="C61" s="228"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -5292,10 +5349,10 @@
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="76"/>
+      <c r="C62" s="74"/>
       <c r="D62" s="22"/>
       <c r="E62" s="6"/>
       <c r="G62" s="22"/>
@@ -5304,342 +5361,342 @@
     </row>
     <row r="63" spans="2:36" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
-      <c r="C63" s="66"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="64" t="s">
+      <c r="E63" s="36"/>
+      <c r="F63" s="313" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="65" t="s">
+      <c r="G63" s="314" t="s">
         <v>42</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="236" t="s">
+      <c r="B64" s="245" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="236"/>
+      <c r="C64" s="245"/>
       <c r="D64" s="14"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="66" t="s">
+      <c r="F64" s="315" t="s">
         <v>47</v>
       </c>
-      <c r="G64" s="24"/>
+      <c r="G64" s="316"/>
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
-      <c r="C65" s="66"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="14"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="25"/>
+      <c r="F65" s="317"/>
+      <c r="G65" s="318"/>
       <c r="I65" s="17"/>
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="233"/>
-      <c r="C66" s="233"/>
+      <c r="B66" s="244"/>
+      <c r="C66" s="244"/>
       <c r="D66" s="14"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="64" t="s">
+      <c r="F66" s="313" t="s">
         <v>64</v>
       </c>
-      <c r="G66" s="65" t="s">
+      <c r="G66" s="314" t="s">
         <v>42</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="232"/>
-      <c r="C67" s="232"/>
+      <c r="B67" s="243"/>
+      <c r="C67" s="243"/>
       <c r="D67" s="14"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="66" t="s">
+      <c r="F67" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="25"/>
+      <c r="G67" s="318"/>
       <c r="I67" s="17"/>
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="232"/>
-      <c r="C68" s="232"/>
+      <c r="B68" s="243"/>
+      <c r="C68" s="243"/>
       <c r="D68" s="14"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="25"/>
+      <c r="F68" s="315"/>
+      <c r="G68" s="318"/>
       <c r="I68" s="17"/>
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
-      <c r="C69" s="66"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="14"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="64" t="s">
+      <c r="F69" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="G69" s="65" t="s">
+      <c r="G69" s="314" t="s">
         <v>42</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="233" t="s">
+      <c r="B70" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="233"/>
+      <c r="C70" s="244"/>
       <c r="D70" s="14"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="66" t="s">
+      <c r="F70" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="G70" s="25"/>
+      <c r="G70" s="318"/>
       <c r="I70" s="17"/>
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
-      <c r="C71" s="66"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="14"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="25"/>
+      <c r="F71" s="315"/>
+      <c r="G71" s="318"/>
       <c r="I71" s="17"/>
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="233"/>
-      <c r="C72" s="233"/>
+      <c r="B72" s="244"/>
+      <c r="C72" s="244"/>
       <c r="D72" s="14"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="65"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
       <c r="I72" s="17"/>
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="232"/>
-      <c r="C73" s="232"/>
+      <c r="B73" s="243"/>
+      <c r="C73" s="243"/>
       <c r="D73" s="14"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="25"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="24"/>
       <c r="I73" s="17"/>
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="232"/>
-      <c r="C74" s="232"/>
+      <c r="B74" s="243"/>
+      <c r="C74" s="243"/>
       <c r="D74" s="14"/>
       <c r="E74" s="5"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="25"/>
+      <c r="G74" s="24"/>
       <c r="I74" s="17"/>
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
-      <c r="C75" s="66"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="64"/>
       <c r="I75" s="14"/>
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="233" t="s">
+      <c r="B76" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="233"/>
+      <c r="C76" s="244"/>
       <c r="D76" s="14"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="25"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="24"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
-      <c r="C77" s="35"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="14"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="25"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="24"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="233"/>
-      <c r="C78" s="233"/>
+      <c r="B78" s="244"/>
+      <c r="C78" s="244"/>
       <c r="D78" s="14"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="64"/>
       <c r="I78" s="14"/>
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B79" s="232"/>
-      <c r="C79" s="232"/>
+      <c r="B79" s="243"/>
+      <c r="C79" s="243"/>
       <c r="D79" s="14"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="25"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="24"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="232"/>
-      <c r="C80" s="232"/>
+      <c r="B80" s="243"/>
+      <c r="C80" s="243"/>
       <c r="D80" s="14"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="25"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="24"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="64"/>
       <c r="I81" s="14"/>
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B82" s="233" t="s">
+      <c r="B82" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="233"/>
-      <c r="D82" s="27"/>
+      <c r="C82" s="244"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="25"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="24"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C83" s="35"/>
-      <c r="D83" s="27"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="25"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="24"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C84" s="36"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="65"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="64"/>
       <c r="I84" s="14"/>
       <c r="J84" s="6"/>
     </row>
     <row r="85" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C85" s="33"/>
-      <c r="D85" s="27"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="25"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="24"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
     <row r="86" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C86" s="36"/>
-      <c r="D86" s="26"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="25"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="24"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
     <row r="87" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C87" s="36"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="64"/>
       <c r="I87" s="14"/>
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C88" s="33"/>
-      <c r="D88" s="26"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="66"/>
+      <c r="F88" s="65"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C89" s="36"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="25"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="24"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="J89" s="6"/>
     </row>
     <row r="90" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C90" s="32"/>
-      <c r="D90" s="27"/>
-      <c r="F90" s="26"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="26"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="26"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="25"/>
       <c r="F91" s="14"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B92" s="6"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="26"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="25"/>
       <c r="F92" s="14"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B93" s="6"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="27"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="26"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B94" s="6"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="26"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="25"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B95" s="6"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="27"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="26"/>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
     </row>
     <row r="96" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B96" s="6"/>
-      <c r="C96" s="34"/>
+      <c r="C96" s="33"/>
       <c r="D96" s="21"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -5647,16 +5704,16 @@
     </row>
     <row r="97" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B97" s="6"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="27"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="26"/>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" s="6"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="14"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -5665,7 +5722,7 @@
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" s="6"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="27"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
@@ -5678,18 +5735,18 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="6"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="69"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="68"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="227"/>
+      <c r="C102" s="242"/>
+      <c r="D102" s="242"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
-      <c r="C103" s="227"/>
-      <c r="D103" s="227"/>
+      <c r="C103" s="242"/>
+      <c r="D103" s="242"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
@@ -5708,6 +5765,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="C8:H8"/>
@@ -5724,30 +5805,6 @@
     <mergeCell ref="F43:H44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions verticalCentered="1"/>
@@ -5762,8 +5819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5772,717 +5829,717 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="J2" s="199" t="s">
-        <v>155</v>
+      <c r="J2" s="193" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="J3" s="199" t="s">
-        <v>153</v>
+      <c r="J3" s="193" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="200"/>
+      <c r="A4" s="194"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="252" t="s">
+      <c r="A5" s="271" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="271"/>
+      <c r="C5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="271"/>
+      <c r="K5" s="271"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="272" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="272"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="272"/>
+      <c r="I6" s="272"/>
+      <c r="J6" s="272"/>
+      <c r="K6" s="272"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="195" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="246" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="246" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="253" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="253"/>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="201" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="278" t="s">
+      <c r="G7" s="247"/>
+      <c r="H7" s="248"/>
+      <c r="I7" s="246" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="278" t="s">
+      <c r="J7" s="248"/>
+      <c r="K7" s="196" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="279"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="278" t="s">
+      <c r="L7" s="197"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="198"/>
+      <c r="B8" s="249" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="280"/>
-      <c r="K7" s="202" t="s">
+      <c r="C8" s="250"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="252" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="203"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
-      <c r="B8" s="281" t="s">
+      <c r="G8" s="253"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="252" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="254"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="197"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="282"/>
-      <c r="D8" s="282"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="284" t="s">
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="258" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="285"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="284" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="286"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="203"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="204" t="s">
+      <c r="G9" s="259"/>
+      <c r="H9" s="260"/>
+      <c r="I9" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="260"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="197"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="200">
+        <v>1</v>
+      </c>
+      <c r="B10" s="255" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="259"/>
+      <c r="H10" s="260"/>
+      <c r="I10" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="260"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="197"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="200"/>
+      <c r="B11" s="261" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="262"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="259"/>
+      <c r="H11" s="260"/>
+      <c r="I11" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="260"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="197"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="200"/>
+      <c r="B12" s="261" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="259"/>
+      <c r="H12" s="260"/>
+      <c r="I12" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="260"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="197"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="200"/>
+      <c r="B13" s="261" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="262"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="259"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="260"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="197"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="200"/>
+      <c r="B14" s="261" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="262"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="259"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="260"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="197"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="200"/>
+      <c r="B15" s="261" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="262"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="259"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="260"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="197"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="200">
+        <v>2</v>
+      </c>
+      <c r="B16" s="255" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="259"/>
+      <c r="H16" s="260"/>
+      <c r="I16" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="260"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="197"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="201">
+        <v>3</v>
+      </c>
+      <c r="B17" s="264" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="265"/>
+      <c r="D17" s="265"/>
+      <c r="E17" s="266"/>
+      <c r="F17" s="267" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="268"/>
+      <c r="H17" s="269"/>
+      <c r="I17" s="267" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="269"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="197"/>
+    </row>
+    <row r="18" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="200">
         <v>4</v>
       </c>
-      <c r="B9" s="263" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="267"/>
-      <c r="H9" s="268"/>
-      <c r="I9" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="268"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="203"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="206">
+      <c r="B18" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="256"/>
+      <c r="D18" s="256"/>
+      <c r="E18" s="257"/>
+      <c r="F18" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="259"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="260"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="197"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="200">
+        <v>5</v>
+      </c>
+      <c r="B19" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="256"/>
+      <c r="D19" s="256"/>
+      <c r="E19" s="257"/>
+      <c r="F19" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="259"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="260"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="197"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="200">
+        <v>6</v>
+      </c>
+      <c r="B20" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="256"/>
+      <c r="D20" s="256"/>
+      <c r="E20" s="257"/>
+      <c r="F20" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="259"/>
+      <c r="H20" s="260"/>
+      <c r="I20" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="260"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="197"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="255" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="256"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="257"/>
+      <c r="F21" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="259"/>
+      <c r="H21" s="260"/>
+      <c r="I21" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="260"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="197"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="200">
         <v>1</v>
       </c>
-      <c r="B10" s="263" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="267"/>
-      <c r="H10" s="268"/>
-      <c r="I10" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="268"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="203"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="206"/>
-      <c r="B11" s="269" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="270"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="271"/>
-      <c r="F11" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="267"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="268"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="203"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206"/>
-      <c r="B12" s="269" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="270"/>
-      <c r="D12" s="270"/>
-      <c r="E12" s="271"/>
-      <c r="F12" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="267"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="268"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="203"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="206"/>
-      <c r="B13" s="269" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="271"/>
-      <c r="F13" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="267"/>
-      <c r="H13" s="268"/>
-      <c r="I13" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="268"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="203"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="206"/>
-      <c r="B14" s="269" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="270"/>
-      <c r="D14" s="270"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="267"/>
-      <c r="H14" s="268"/>
-      <c r="I14" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="268"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="203"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="206"/>
-      <c r="B15" s="269" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="270"/>
-      <c r="D15" s="270"/>
-      <c r="E15" s="271"/>
-      <c r="F15" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
-      <c r="I15" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="268"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="203"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="206">
+      <c r="B22" s="255" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="256"/>
+      <c r="D22" s="256"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="259"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="260"/>
+      <c r="K22" s="199"/>
+      <c r="L22" s="197"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="200">
         <v>2</v>
       </c>
-      <c r="B16" s="263" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="267"/>
-      <c r="H16" s="268"/>
-      <c r="I16" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="268"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="203"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="207">
+      <c r="B23" s="255" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="256"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="257"/>
+      <c r="F23" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="259"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="260"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="197"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="200">
         <v>3</v>
       </c>
-      <c r="B17" s="272" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="273"/>
-      <c r="D17" s="273"/>
-      <c r="E17" s="274"/>
-      <c r="F17" s="275" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="276"/>
-      <c r="H17" s="277"/>
-      <c r="I17" s="275" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="277"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="203"/>
-    </row>
-    <row r="18" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="206">
+      <c r="B24" s="255" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="256"/>
+      <c r="D24" s="256"/>
+      <c r="E24" s="257"/>
+      <c r="F24" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="259"/>
+      <c r="H24" s="260"/>
+      <c r="I24" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="260"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="197"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="200">
         <v>4</v>
       </c>
-      <c r="B18" s="263" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="267"/>
-      <c r="H18" s="268"/>
-      <c r="I18" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="268"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="203"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="206">
+      <c r="B25" s="255" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="256"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="257"/>
+      <c r="F25" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="259"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="260"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="197"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="200">
         <v>5</v>
       </c>
-      <c r="B19" s="263" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="267"/>
-      <c r="H19" s="268"/>
-      <c r="I19" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="268"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="203"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="206">
+      <c r="B26" s="255" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="256"/>
+      <c r="D26" s="256"/>
+      <c r="E26" s="257"/>
+      <c r="F26" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="259"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="260"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="197"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="263" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="264"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="267"/>
-      <c r="H20" s="268"/>
-      <c r="I20" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="268"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="203"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="263" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="264"/>
-      <c r="D21" s="264"/>
-      <c r="E21" s="265"/>
-      <c r="F21" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="267"/>
-      <c r="H21" s="268"/>
-      <c r="I21" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="268"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="203"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="206">
-        <v>1</v>
-      </c>
-      <c r="B22" s="263" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="264"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="267"/>
-      <c r="H22" s="268"/>
-      <c r="I22" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="268"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="203"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="206">
-        <v>2</v>
-      </c>
-      <c r="B23" s="263" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="264"/>
-      <c r="D23" s="264"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="267"/>
-      <c r="H23" s="268"/>
-      <c r="I23" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="268"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="203"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="206">
-        <v>3</v>
-      </c>
-      <c r="B24" s="263" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="264"/>
-      <c r="D24" s="264"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="267"/>
-      <c r="H24" s="268"/>
-      <c r="I24" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="268"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="203"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="206">
-        <v>4</v>
-      </c>
-      <c r="B25" s="263" t="s">
+      <c r="B27" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="264"/>
-      <c r="D25" s="264"/>
-      <c r="E25" s="265"/>
-      <c r="F25" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="267"/>
-      <c r="H25" s="268"/>
-      <c r="I25" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="268"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="203"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="206">
-        <v>5</v>
-      </c>
-      <c r="B26" s="263" t="s">
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="257"/>
+      <c r="F27" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="259"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="258" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="260"/>
+      <c r="K27" s="199"/>
+      <c r="L27" s="197"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="198"/>
+      <c r="B28" s="261" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="264"/>
-      <c r="D26" s="264"/>
-      <c r="E26" s="265"/>
-      <c r="F26" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="267"/>
-      <c r="H26" s="268"/>
-      <c r="I26" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="268"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="203"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="204" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="263" t="s">
+      <c r="C28" s="262"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="258" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="264"/>
-      <c r="D27" s="264"/>
-      <c r="E27" s="265"/>
-      <c r="F27" s="266" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="267"/>
-      <c r="H27" s="268"/>
-      <c r="I27" s="266" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="268"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="203"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="204"/>
-      <c r="B28" s="269" t="s">
+      <c r="G28" s="259"/>
+      <c r="H28" s="260"/>
+      <c r="I28" s="258" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="270"/>
-      <c r="D28" s="270"/>
-      <c r="E28" s="271"/>
-      <c r="F28" s="266" t="s">
+      <c r="J28" s="260"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="197"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="207"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="197"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="203"/>
+      <c r="B30" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="267"/>
-      <c r="H28" s="268"/>
-      <c r="I28" s="266" t="s">
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="276"/>
+      <c r="F30" s="277" t="s">
         <v>132</v>
       </c>
-      <c r="J28" s="268"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="203"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="214"/>
-      <c r="B29" s="215"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="221"/>
-      <c r="L29" s="203"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="209"/>
-      <c r="B30" s="255" t="s">
+      <c r="G30" s="278"/>
+      <c r="H30" s="279"/>
+      <c r="I30" s="277" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="279"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="197"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="280" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="280"/>
+      <c r="D31" s="284"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="286" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="282"/>
+      <c r="I31" s="282"/>
+      <c r="J31" s="282"/>
+      <c r="K31" s="282"/>
+      <c r="L31" s="282"/>
+    </row>
+    <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="281" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="256"/>
-      <c r="D30" s="256"/>
-      <c r="E30" s="257"/>
-      <c r="F30" s="258" t="s">
+      <c r="B32" s="281"/>
+      <c r="D32" s="283"/>
+      <c r="E32" s="282"/>
+      <c r="F32" s="282"/>
+      <c r="G32" s="282" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="282"/>
+      <c r="I32" s="282"/>
+      <c r="J32" s="282"/>
+      <c r="K32" s="282"/>
+      <c r="L32" s="282"/>
+    </row>
+    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="281" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="259"/>
-      <c r="H30" s="260"/>
-      <c r="I30" s="258" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="260"/>
-      <c r="K30" s="210"/>
-      <c r="L30" s="203"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="261" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="261"/>
-      <c r="D31" s="247"/>
-      <c r="E31" s="248"/>
-      <c r="F31" s="248"/>
-      <c r="G31" s="250" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="249"/>
-      <c r="K31" s="249"/>
-      <c r="L31" s="249"/>
-    </row>
-    <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="262" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="262"/>
-      <c r="D32" s="245"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="249"/>
-      <c r="I32" s="249"/>
-      <c r="J32" s="249"/>
-      <c r="K32" s="249"/>
-      <c r="L32" s="249"/>
-    </row>
-    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="262" t="s">
+      <c r="B33" s="281"/>
+      <c r="D33" s="215"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="310" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="310"/>
+      <c r="J33" s="311" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="311"/>
+      <c r="L33" s="311"/>
+    </row>
+    <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="281" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="281"/>
+      <c r="D34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="310"/>
+      <c r="I34" s="310"/>
+      <c r="J34" s="311"/>
+      <c r="K34" s="311"/>
+      <c r="L34" s="311"/>
+    </row>
+    <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="270"/>
+      <c r="B35" s="270"/>
+      <c r="D35" s="273" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="273"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="310"/>
+      <c r="I35" s="310"/>
+      <c r="J35" s="311"/>
+      <c r="K35" s="311"/>
+      <c r="L35" s="311"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="270"/>
+      <c r="B36" s="270"/>
+      <c r="D36" s="215"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="310"/>
+      <c r="I36" s="310"/>
+      <c r="J36" s="311"/>
+      <c r="K36" s="311"/>
+      <c r="L36" s="311"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="270"/>
+      <c r="B37" s="270"/>
+      <c r="D37" s="206"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="310"/>
+      <c r="I37" s="310"/>
+      <c r="J37" s="311"/>
+      <c r="K37" s="311"/>
+      <c r="L37" s="311"/>
+    </row>
+    <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="270"/>
+      <c r="B38" s="270"/>
+      <c r="D38" s="205"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="310"/>
+      <c r="I38" s="310"/>
+      <c r="J38" s="311"/>
+      <c r="K38" s="311"/>
+      <c r="L38" s="311"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="205"/>
+      <c r="D39" s="206" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="262"/>
-      <c r="D33" s="222"/>
-      <c r="F33" s="222"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="222" t="s">
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="310" t="s">
         <v>140</v>
       </c>
-      <c r="I33" s="222"/>
-      <c r="J33" s="246" t="s">
-        <v>141</v>
-      </c>
-      <c r="K33" s="246"/>
-      <c r="L33" s="246"/>
-    </row>
-    <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="262" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="262"/>
-      <c r="D34" s="222"/>
-      <c r="F34" s="222"/>
-      <c r="G34" s="222"/>
-      <c r="H34" s="222"/>
-      <c r="I34" s="222"/>
-      <c r="J34" s="246"/>
-      <c r="K34" s="246"/>
-      <c r="L34" s="246"/>
-    </row>
-    <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="251"/>
-      <c r="B35" s="251"/>
-      <c r="D35" s="254" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="254"/>
-      <c r="F35" s="222"/>
-      <c r="G35" s="222"/>
-      <c r="H35" s="222"/>
-      <c r="I35" s="222"/>
-      <c r="J35" s="246"/>
-      <c r="K35" s="246"/>
-      <c r="L35" s="246"/>
-    </row>
-    <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="251"/>
-      <c r="B36" s="251"/>
-      <c r="D36" s="222"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="222"/>
-      <c r="I36" s="222"/>
-      <c r="J36" s="246"/>
-      <c r="K36" s="246"/>
-      <c r="L36" s="246"/>
-    </row>
-    <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="251"/>
-      <c r="B37" s="251"/>
-      <c r="D37" s="212"/>
-      <c r="F37" s="222"/>
-      <c r="G37" s="222"/>
-      <c r="H37" s="222"/>
-      <c r="I37" s="222"/>
-      <c r="J37" s="246"/>
-      <c r="K37" s="246"/>
-      <c r="L37" s="246"/>
-    </row>
-    <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="251"/>
-      <c r="B38" s="251"/>
-      <c r="D38" s="211"/>
-      <c r="F38" s="222"/>
-      <c r="G38" s="222"/>
-      <c r="H38" s="222"/>
-      <c r="I38" s="222"/>
-      <c r="J38" s="246"/>
-      <c r="K38" s="246"/>
-      <c r="L38" s="246"/>
-    </row>
-    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="211"/>
-      <c r="D39" s="212" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="222"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222" t="s">
-        <v>142</v>
-      </c>
-      <c r="I39" s="213"/>
-      <c r="J39" s="246" t="s">
-        <v>141</v>
-      </c>
-      <c r="K39" s="246"/>
-      <c r="L39" s="246"/>
+      <c r="I39" s="312"/>
+      <c r="J39" s="311" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39" s="311"/>
+      <c r="L39" s="311"/>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="211"/>
+      <c r="B40" s="205"/>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="211"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222" t="s">
-        <v>143</v>
-      </c>
-      <c r="I40" s="213"/>
-      <c r="J40" s="246" t="s">
-        <v>147</v>
-      </c>
-      <c r="K40" s="246"/>
-      <c r="L40" s="246"/>
+      <c r="D40" s="205"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="310" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="312"/>
+      <c r="J40" s="311" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40" s="311"/>
+      <c r="L40" s="311"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D41" s="212"/>
+      <c r="D41" s="206"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D42" s="211"/>
+      <c r="D42" s="205"/>
     </row>
     <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="245" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="245"/>
+      <c r="D43" s="283" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="283"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C44">
@@ -6490,82 +6547,23 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D47" s="245" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="245"/>
+      <c r="D47" s="283" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="283"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="211"/>
+      <c r="A48" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:L31"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -6582,13 +6580,72 @@
     <mergeCell ref="J33:L38"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6597,10 +6654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6616,949 +6673,949 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="196"/>
-      <c r="B1" s="197"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="103" t="s">
+      <c r="A1" s="190"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="291" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="237" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
+      <c r="A3" s="225" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-    </row>
-    <row r="6" spans="1:9" s="106" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="293" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+    </row>
+    <row r="6" spans="1:9" s="104" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="292" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="295" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="294" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="297" t="s">
+      <c r="D6" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="299"/>
-    </row>
-    <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="294"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="296"/>
-      <c r="D7" s="108" t="s">
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="297"/>
+      <c r="H6" s="297"/>
+      <c r="I6" s="298"/>
+    </row>
+    <row r="7" spans="1:9" s="104" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="293"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="108"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111">
+      <c r="A8" s="109">
         <v>1</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113">
+      <c r="B8" s="110"/>
+      <c r="C8" s="111">
         <v>2</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="112">
         <v>3</v>
       </c>
-      <c r="E8" s="115">
+      <c r="E8" s="113">
         <v>4</v>
       </c>
-      <c r="F8" s="114">
+      <c r="F8" s="112">
         <v>5</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="76">
         <v>6</v>
       </c>
-      <c r="H8" s="116">
+      <c r="H8" s="114">
         <v>7</v>
       </c>
-      <c r="I8" s="117">
+      <c r="I8" s="115">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="120" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="299"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="301"/>
+      <c r="D11" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="132" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="133"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="139">
+        <v>1</v>
+      </c>
+      <c r="B13" s="289" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="290"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="124"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="300"/>
-      <c r="B11" s="301"/>
-      <c r="C11" s="302"/>
-      <c r="D11" s="132" t="s">
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="139">
+        <v>2</v>
+      </c>
+      <c r="B14" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="141"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="139">
+        <v>3</v>
+      </c>
+      <c r="B15" s="289" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="290"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="139">
+        <v>4</v>
+      </c>
+      <c r="B16" s="289" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="290"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="144">
+        <v>5</v>
+      </c>
+      <c r="B17" s="302" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="303"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="139">
+        <v>6</v>
+      </c>
+      <c r="B18" s="304" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="305"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="139">
+        <v>7</v>
+      </c>
+      <c r="B19" s="306" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="307"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="139">
+        <v>8</v>
+      </c>
+      <c r="B20" s="289"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="139">
+        <v>9</v>
+      </c>
+      <c r="B21" s="289"/>
+      <c r="C21" s="290"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="139">
+        <v>10</v>
+      </c>
+      <c r="B22" s="140"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="139">
+        <v>11</v>
+      </c>
+      <c r="B23" s="145"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="139">
+        <v>12</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="139">
+        <v>13</v>
+      </c>
+      <c r="B25" s="140"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="139">
+        <v>14</v>
+      </c>
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="139">
+        <v>15</v>
+      </c>
+      <c r="B27" s="140"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="139">
+        <v>16</v>
+      </c>
+      <c r="B28" s="140"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="139">
+        <v>17</v>
+      </c>
+      <c r="B29" s="140"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="139">
+        <v>18</v>
+      </c>
+      <c r="B30" s="140"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="132" t="s">
+      <c r="B31" s="140"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="E31" s="148" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G31" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H31" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="141">
-        <v>1</v>
-      </c>
-      <c r="B13" s="287" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="288"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="141">
-        <v>2</v>
-      </c>
-      <c r="B14" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="145"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="141">
-        <v>3</v>
-      </c>
-      <c r="B15" s="287" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="288"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="141">
-        <v>4</v>
-      </c>
-      <c r="B16" s="287" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="288"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="145"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146">
-        <v>5</v>
-      </c>
-      <c r="B17" s="303" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="304"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="145"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="141">
-        <v>6</v>
-      </c>
-      <c r="B18" s="305" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="306"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="141">
-        <v>7</v>
-      </c>
-      <c r="B19" s="307" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="308"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141">
-        <v>8</v>
-      </c>
-      <c r="B20" s="287"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="141">
-        <v>9</v>
-      </c>
-      <c r="B21" s="287"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="141">
-        <v>10</v>
-      </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="145"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="141">
-        <v>11</v>
-      </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="145"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="141">
-        <v>12</v>
-      </c>
-      <c r="B24" s="147"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="145"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="141">
-        <v>13</v>
-      </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="145"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="141">
-        <v>14</v>
-      </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="145"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="141">
-        <v>15</v>
-      </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="145"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="141">
-        <v>16</v>
-      </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="145"/>
-    </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="141">
-        <v>17</v>
-      </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="145"/>
-    </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="141">
-        <v>18</v>
-      </c>
-      <c r="B30" s="142"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
-    </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="141" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="150" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="150" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="150" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="150" t="s">
-        <v>66</v>
-      </c>
-      <c r="I31" s="151" t="s">
+      <c r="I31" s="149" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="189"/>
-      <c r="E32" s="190" t="s">
+      <c r="B32" s="180"/>
+      <c r="C32" s="160" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="183"/>
+      <c r="E32" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="191"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="190"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="184"/>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="188"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="182"/>
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="182"/>
-      <c r="C34" s="180" t="s">
+      <c r="B34" s="176"/>
+      <c r="C34" s="174" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="151"/>
+    </row>
+    <row r="35" spans="1:9" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="177"/>
+      <c r="B35" s="178">
+        <v>1</v>
+      </c>
+      <c r="C35" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="153"/>
+    </row>
+    <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="177"/>
+      <c r="B36" s="178">
+        <v>2</v>
+      </c>
+      <c r="C36" s="154" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="153"/>
+    </row>
+    <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="177"/>
+      <c r="B37" s="178">
+        <v>3</v>
+      </c>
+      <c r="C37" s="216" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="143"/>
+    </row>
+    <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="177"/>
+      <c r="B38" s="178">
+        <v>4</v>
+      </c>
+      <c r="C38" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="142"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="143"/>
+    </row>
+    <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="177"/>
+      <c r="B39" s="178">
+        <v>5</v>
+      </c>
+      <c r="C39" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="153"/>
+    </row>
+    <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="177"/>
+      <c r="B40" s="178">
+        <v>6</v>
+      </c>
+      <c r="C40" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="143"/>
+    </row>
+    <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="177"/>
+      <c r="B41" s="178">
+        <v>7</v>
+      </c>
+      <c r="C41" s="154" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="143"/>
+    </row>
+    <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="177"/>
+      <c r="B42" s="178">
+        <v>8</v>
+      </c>
+      <c r="C42" s="154" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="143"/>
+    </row>
+    <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="177"/>
+      <c r="B43" s="178">
+        <v>9</v>
+      </c>
+      <c r="C43" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="143"/>
+    </row>
+    <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="177"/>
+      <c r="B44" s="178">
+        <v>10</v>
+      </c>
+      <c r="C44" s="154"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="143"/>
+    </row>
+    <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="177"/>
+      <c r="B45" s="178">
+        <v>11</v>
+      </c>
+      <c r="C45" s="154"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="143"/>
+    </row>
+    <row r="46" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="147"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="157" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="149"/>
+    </row>
+    <row r="47" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="158"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="153"/>
-    </row>
-    <row r="35" spans="1:9" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="183"/>
-      <c r="B35" s="184">
-        <v>1</v>
-      </c>
-      <c r="C35" s="154" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="155"/>
-    </row>
-    <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="183"/>
-      <c r="B36" s="184">
+      <c r="D47" s="161"/>
+      <c r="E47" s="161" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="162"/>
+    </row>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="163"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="165"/>
+      <c r="F48" s="165"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="165"/>
+      <c r="I48" s="166"/>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="163"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
+      <c r="I49" s="165"/>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="156" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="155"/>
-    </row>
-    <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="183"/>
-      <c r="B37" s="184">
-        <v>3</v>
-      </c>
-      <c r="C37" s="223" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="145"/>
-    </row>
-    <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="183"/>
-      <c r="B38" s="184">
-        <v>4</v>
-      </c>
-      <c r="C38" s="156" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="145"/>
-    </row>
-    <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="183"/>
-      <c r="B39" s="184">
-        <v>5</v>
-      </c>
-      <c r="C39" s="156" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="155"/>
-    </row>
-    <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183"/>
-      <c r="B40" s="184">
-        <v>6</v>
-      </c>
-      <c r="C40" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="145"/>
-    </row>
-    <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="183"/>
-      <c r="B41" s="184">
-        <v>7</v>
-      </c>
-      <c r="C41" s="156" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="145"/>
-    </row>
-    <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="183"/>
-      <c r="B42" s="184">
-        <v>8</v>
-      </c>
-      <c r="C42" s="156" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="145"/>
-    </row>
-    <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="183"/>
-      <c r="B43" s="184">
-        <v>9</v>
-      </c>
-      <c r="C43" s="156" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="145"/>
-    </row>
-    <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183"/>
-      <c r="B44" s="184">
-        <v>10</v>
-      </c>
-      <c r="C44" s="156"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="145"/>
-    </row>
-    <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="183"/>
-      <c r="B45" s="184">
-        <v>11</v>
-      </c>
-      <c r="C45" s="156"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="145"/>
-    </row>
-    <row r="46" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="149"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="159" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="150" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="151"/>
-    </row>
-    <row r="47" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="160"/>
-      <c r="B47" s="161"/>
-      <c r="C47" s="194" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="164"/>
-    </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="165"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="168"/>
-    </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="165"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="167"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="167"/>
-      <c r="I49" s="167"/>
-    </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="239" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="240"/>
-      <c r="F50" s="241"/>
-      <c r="H50" s="167"/>
-      <c r="I50" s="167"/>
+      <c r="E50" s="230"/>
+      <c r="F50" s="231"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
     </row>
     <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="99"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="97"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="165"/>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="228" t="s">
+      <c r="B52" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="309"/>
-      <c r="D52" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="F52" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="H52" s="167"/>
-      <c r="I52" s="167"/>
+      <c r="C52" s="287"/>
+      <c r="D52" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="165"/>
+      <c r="I52" s="165"/>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="228" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="309"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="101"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="235" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="287"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="99"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
     </row>
     <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="192" t="s">
+      <c r="D54" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="95" t="s">
+      <c r="F54" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="165"/>
     </row>
     <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="193"/>
-      <c r="F55" s="96"/>
-      <c r="H55" s="167"/>
-      <c r="I55" s="167"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="187"/>
+      <c r="F55" s="94"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="165"/>
     </row>
     <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="88"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="84" t="s">
+      <c r="A56" s="86"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="84" t="s">
+      <c r="E56" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="195" t="s">
+      <c r="F56" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="167"/>
-      <c r="I56" s="167"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
     </row>
     <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="43"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="87"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="85"/>
+      <c r="H57" s="165"/>
+      <c r="I57" s="165"/>
     </row>
     <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="86" t="s">
+      <c r="D58" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="86" t="s">
+      <c r="E58" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="87" t="s">
+      <c r="F58" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
     </row>
     <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
-      <c r="B59" s="54" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="81"/>
-      <c r="H59" s="167"/>
-      <c r="I59" s="167"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="79"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
     </row>
     <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
-      <c r="B60" s="54" t="s">
+      <c r="A60" s="55"/>
+      <c r="B60" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="85"/>
-      <c r="H60" s="167"/>
-      <c r="I60" s="167"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="83"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
     </row>
     <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
-      <c r="B61" s="54" t="s">
+      <c r="A61" s="55"/>
+      <c r="B61" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="H61" s="167"/>
-      <c r="I61" s="167"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
     </row>
     <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="51" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="H62" s="167"/>
-      <c r="I62" s="167"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
     </row>
     <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="47"/>
+      <c r="B63" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C63" s="19"/>
-      <c r="D63" s="70" t="s">
+      <c r="D63" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="70" t="s">
+      <c r="E63" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="78" t="s">
+      <c r="F63" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="167"/>
-      <c r="I63" s="167"/>
+      <c r="H63" s="165"/>
+      <c r="I63" s="165"/>
     </row>
     <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
@@ -7567,558 +7624,582 @@
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="H64" s="167"/>
-      <c r="I64" s="167"/>
-    </row>
-    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="165"/>
-      <c r="B65" s="185" t="s">
+      <c r="H64" s="165"/>
+      <c r="I64" s="165"/>
+    </row>
+    <row r="65" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="163"/>
+      <c r="B65" s="179" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="289" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65" s="289"/>
-      <c r="G65" s="289"/>
-      <c r="H65" s="289"/>
-      <c r="I65" s="289"/>
-    </row>
-    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="165"/>
-      <c r="B66" s="185" t="s">
+      <c r="D65" s="165"/>
+      <c r="E65" s="308" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="308"/>
+      <c r="G65" s="308"/>
+      <c r="H65" s="308"/>
+      <c r="I65" s="308"/>
+    </row>
+    <row r="66" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="163"/>
+      <c r="B66" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="185"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="167"/>
-      <c r="F66" s="167"/>
-      <c r="G66" s="167"/>
-      <c r="H66" s="167"/>
-      <c r="I66" s="167"/>
-    </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="165"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="217"/>
+      <c r="F66" s="217"/>
+      <c r="G66" s="217"/>
+      <c r="H66" s="217"/>
+      <c r="I66" s="217"/>
+    </row>
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="163"/>
       <c r="B67" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="8"/>
-      <c r="D67" s="169"/>
-      <c r="E67" s="290" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" s="290"/>
-      <c r="G67" s="290"/>
-      <c r="H67" s="290"/>
-      <c r="I67" s="290"/>
-    </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="165"/>
+      <c r="D67" s="167"/>
+      <c r="E67" s="309" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="309"/>
+      <c r="G67" s="309"/>
+      <c r="H67" s="309"/>
+      <c r="I67" s="309"/>
+    </row>
+    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="163"/>
       <c r="B68" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="14"/>
-      <c r="D68" s="169"/>
-      <c r="E68" s="290" t="s">
+      <c r="D68" s="167"/>
+      <c r="E68" s="309" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="309"/>
+      <c r="G68" s="309"/>
+      <c r="H68" s="309"/>
+      <c r="I68" s="309"/>
+    </row>
+    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="163"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
+      <c r="I69" s="168"/>
+    </row>
+    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="163"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="168"/>
+      <c r="F70" s="168"/>
+      <c r="G70" s="168"/>
+      <c r="H70" s="168"/>
+      <c r="I70" s="168"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="163"/>
+      <c r="B71" s="244"/>
+      <c r="C71" s="244"/>
+      <c r="D71" s="167"/>
+      <c r="E71" s="167"/>
+      <c r="F71" s="167"/>
+      <c r="G71" s="169"/>
+      <c r="H71" s="169"/>
+      <c r="I71" s="102"/>
+    </row>
+    <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="170" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="245" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="245"/>
+      <c r="D72" s="171" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="218">
+        <v>1</v>
+      </c>
+      <c r="F72" s="219"/>
+      <c r="G72" s="219" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" s="219" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="220"/>
+      <c r="J72" s="221"/>
+      <c r="K72" s="221"/>
+    </row>
+    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="170"/>
+      <c r="B73" s="243"/>
+      <c r="C73" s="243"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="218"/>
+      <c r="F73" s="219"/>
+      <c r="G73" s="219" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" s="219"/>
+      <c r="I73" s="220"/>
+      <c r="J73" s="221"/>
+      <c r="K73" s="221"/>
+    </row>
+    <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="170" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="171" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="218">
+        <v>2</v>
+      </c>
+      <c r="F74" s="219"/>
+      <c r="G74" s="219"/>
+      <c r="H74" s="219"/>
+      <c r="I74" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="290"/>
-      <c r="G68" s="290"/>
-      <c r="H68" s="290"/>
-      <c r="I68" s="290"/>
-    </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="165"/>
-      <c r="D69" s="169"/>
-      <c r="E69" s="170"/>
-      <c r="F69" s="170"/>
-      <c r="G69" s="170"/>
-      <c r="H69" s="170"/>
-      <c r="I69" s="170"/>
-    </row>
-    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="165"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="169"/>
-      <c r="E70" s="170"/>
-      <c r="F70" s="170"/>
-      <c r="G70" s="170"/>
-      <c r="H70" s="170"/>
-      <c r="I70" s="170"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="165"/>
-      <c r="B71" s="233"/>
-      <c r="C71" s="233"/>
-      <c r="D71" s="169"/>
-      <c r="E71" s="169"/>
-      <c r="F71" s="169"/>
-      <c r="G71" s="171"/>
-      <c r="H71" s="171"/>
-      <c r="I71" s="104"/>
-    </row>
-    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="172" t="s">
+      <c r="J74" s="221"/>
+      <c r="K74" s="221"/>
+    </row>
+    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="170"/>
+      <c r="B75" s="244" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="244"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="218"/>
+      <c r="F75" s="219"/>
+      <c r="G75" s="219"/>
+      <c r="H75" s="219"/>
+      <c r="I75" s="220"/>
+      <c r="J75" s="221"/>
+      <c r="K75" s="221"/>
+    </row>
+    <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="236" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="236"/>
-      <c r="D72" s="174" t="s">
+      <c r="B76" s="6"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="E72" s="175">
-        <v>1</v>
-      </c>
-      <c r="F72" s="176"/>
-      <c r="G72" s="176" t="s">
+      <c r="E76" s="222">
+        <v>3</v>
+      </c>
+      <c r="F76" s="288"/>
+      <c r="G76" s="288"/>
+      <c r="H76" s="223" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76" s="223"/>
+      <c r="J76" s="221"/>
+      <c r="K76" s="221"/>
+    </row>
+    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="172"/>
+      <c r="B77" s="244"/>
+      <c r="C77" s="244"/>
+      <c r="D77" s="173"/>
+      <c r="E77" s="222"/>
+      <c r="F77" s="223"/>
+      <c r="G77" s="223"/>
+      <c r="H77" s="223"/>
+      <c r="I77" s="223"/>
+      <c r="J77" s="221"/>
+      <c r="K77" s="221"/>
+    </row>
+    <row r="78" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="H72" s="176" t="s">
+      <c r="B78" s="243"/>
+      <c r="C78" s="243"/>
+      <c r="D78" s="173" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="222">
+        <v>4</v>
+      </c>
+      <c r="F78" s="223"/>
+      <c r="G78" s="223"/>
+      <c r="H78" s="223"/>
+      <c r="I78" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="I72" s="173"/>
-    </row>
-    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="172"/>
-      <c r="B73" s="232"/>
-      <c r="C73" s="232"/>
-      <c r="D73" s="174"/>
-      <c r="E73" s="175"/>
-      <c r="F73" s="176"/>
-      <c r="G73" s="176" t="s">
+      <c r="J78" s="221"/>
+      <c r="K78" s="221"/>
+    </row>
+    <row r="79" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="172"/>
+      <c r="B79" s="243"/>
+      <c r="C79" s="243"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="222"/>
+      <c r="F79" s="223"/>
+      <c r="G79" s="223"/>
+      <c r="H79" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="H73" s="176"/>
-      <c r="I73" s="173"/>
-    </row>
-    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="172" t="s">
+      <c r="I79" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="174" t="s">
+      <c r="J79" s="221"/>
+      <c r="K79" s="221"/>
+    </row>
+    <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="175">
-        <v>2</v>
-      </c>
-      <c r="F74" s="176"/>
-      <c r="G74" s="176"/>
-      <c r="H74" s="176"/>
-      <c r="I74" s="173" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="172"/>
-      <c r="B75" s="233" t="s">
+      <c r="B80" s="6"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="173" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="222">
+        <v>5</v>
+      </c>
+      <c r="F80" s="288"/>
+      <c r="G80" s="288"/>
+      <c r="H80" s="223" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="223"/>
+      <c r="J80" s="221"/>
+      <c r="K80" s="221"/>
+    </row>
+    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="233"/>
-      <c r="D75" s="174"/>
-      <c r="E75" s="175"/>
-      <c r="F75" s="176"/>
-      <c r="G75" s="176"/>
-      <c r="H75" s="176"/>
-      <c r="I75" s="173"/>
-    </row>
-    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="177" t="s">
+      <c r="C81" s="244"/>
+      <c r="D81" s="173"/>
+      <c r="E81" s="224"/>
+      <c r="F81" s="223"/>
+      <c r="G81" s="223"/>
+      <c r="H81" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="178" t="s">
+      <c r="I81" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="E76" s="179">
-        <v>3</v>
-      </c>
-      <c r="F76" s="291"/>
-      <c r="G76" s="291"/>
-      <c r="H76" s="178" t="s">
+      <c r="J81" s="221"/>
+      <c r="K81" s="221"/>
+    </row>
+    <row r="82" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="173" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="222">
+        <v>6</v>
+      </c>
+      <c r="F82" s="223"/>
+      <c r="G82" s="223"/>
+      <c r="H82" s="223"/>
+      <c r="I82" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="I76" s="178"/>
-    </row>
-    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="177"/>
-      <c r="B77" s="233"/>
-      <c r="C77" s="233"/>
-      <c r="D77" s="178"/>
-      <c r="E77" s="179"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-    </row>
-    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="177" t="s">
+      <c r="J82" s="221"/>
+      <c r="K82" s="221"/>
+    </row>
+    <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="172"/>
+      <c r="B83" s="244"/>
+      <c r="C83" s="244"/>
+      <c r="D83" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="232"/>
-      <c r="C78" s="232"/>
-      <c r="D78" s="178" t="s">
+      <c r="E83" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="179">
-        <v>4</v>
-      </c>
-      <c r="F78" s="178"/>
-      <c r="G78" s="178"/>
-      <c r="H78" s="178"/>
-      <c r="I78" s="178" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="177"/>
-      <c r="B79" s="232"/>
-      <c r="C79" s="232"/>
-      <c r="D79" s="178"/>
-      <c r="E79" s="179"/>
-      <c r="F79" s="178"/>
-      <c r="G79" s="178"/>
-      <c r="H79" s="178" t="s">
+      <c r="F83" s="223"/>
+      <c r="G83" s="223"/>
+      <c r="H83" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="I79" s="178" t="s">
+      <c r="I83" s="223" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="177" t="s">
+      <c r="J83" s="221"/>
+      <c r="K83" s="221"/>
+    </row>
+    <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="178" t="s">
+      <c r="B84" s="243"/>
+      <c r="C84" s="243"/>
+      <c r="D84" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="179">
-        <v>5</v>
-      </c>
-      <c r="F80" s="291"/>
-      <c r="G80" s="291"/>
-      <c r="H80" s="178" t="s">
-        <v>92</v>
-      </c>
-      <c r="I80" s="178"/>
-    </row>
-    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="177" t="s">
+      <c r="E84" s="222">
+        <v>7</v>
+      </c>
+      <c r="F84" s="288"/>
+      <c r="G84" s="288"/>
+      <c r="H84" s="223" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="223"/>
+      <c r="J84" s="221"/>
+      <c r="K84" s="221"/>
+    </row>
+    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="172"/>
+      <c r="B85" s="243"/>
+      <c r="C85" s="243"/>
+      <c r="D85" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="233" t="s">
+      <c r="E85" s="223"/>
+      <c r="F85" s="222"/>
+      <c r="G85" s="223"/>
+      <c r="H85" s="223"/>
+      <c r="I85" s="223"/>
+      <c r="J85" s="221"/>
+      <c r="K85" s="221"/>
+    </row>
+    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="172"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="173"/>
+      <c r="E86" s="173"/>
+      <c r="F86" s="173"/>
+      <c r="G86" s="173"/>
+      <c r="H86" s="173"/>
+      <c r="I86" s="173"/>
+    </row>
+    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="172"/>
+      <c r="B87" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="233"/>
-      <c r="D81" s="178"/>
-      <c r="E81" s="177"/>
-      <c r="F81" s="178"/>
-      <c r="G81" s="178"/>
-      <c r="H81" s="178" t="s">
+      <c r="C87" s="244"/>
+      <c r="D87" s="173"/>
+      <c r="E87" s="173"/>
+      <c r="F87" s="173"/>
+      <c r="G87" s="173"/>
+      <c r="H87" s="173"/>
+      <c r="I87" s="173"/>
+    </row>
+    <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="172"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
+      <c r="G88" s="173"/>
+      <c r="H88" s="173"/>
+      <c r="I88" s="173"/>
+    </row>
+    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="172"/>
+      <c r="B89" s="172"/>
+      <c r="C89" s="173"/>
+      <c r="D89" s="173"/>
+      <c r="E89" s="173"/>
+      <c r="F89" s="173"/>
+      <c r="G89" s="173"/>
+      <c r="H89" s="173"/>
+      <c r="I89" s="173"/>
+    </row>
+    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="173"/>
+      <c r="B90" s="173"/>
+      <c r="C90" s="173"/>
+      <c r="D90" s="173"/>
+      <c r="E90" s="173"/>
+      <c r="F90" s="173"/>
+      <c r="G90" s="173"/>
+      <c r="H90" s="173"/>
+      <c r="I90" s="173"/>
+    </row>
+    <row r="91" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="173"/>
+      <c r="B91" s="173"/>
+      <c r="C91" s="173"/>
+      <c r="D91" s="173"/>
+      <c r="E91" s="173"/>
+      <c r="F91" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="I81" s="178" t="s">
+      <c r="G91" s="173"/>
+      <c r="H91" s="173"/>
+      <c r="I91" s="173"/>
+    </row>
+    <row r="92" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="173"/>
+      <c r="B92" s="173"/>
+      <c r="C92" s="173"/>
+      <c r="D92" s="173"/>
+      <c r="E92" s="173"/>
+      <c r="F92" s="173"/>
+      <c r="G92" s="173"/>
+      <c r="H92" s="173"/>
+      <c r="I92" s="173"/>
+    </row>
+    <row r="93" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="173"/>
+      <c r="B93" s="173"/>
+      <c r="C93" s="173"/>
+      <c r="D93" s="173"/>
+      <c r="E93" s="173"/>
+      <c r="F93" s="173"/>
+      <c r="G93" s="173" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="177" t="s">
+      <c r="H93" s="173"/>
+      <c r="I93" s="173"/>
+    </row>
+    <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="173"/>
+      <c r="B94" s="173"/>
+      <c r="C94" s="173"/>
+      <c r="D94" s="173"/>
+      <c r="E94" s="173"/>
+      <c r="F94" s="173"/>
+      <c r="G94" s="173"/>
+      <c r="H94" s="173"/>
+      <c r="I94" s="173"/>
+    </row>
+    <row r="95" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="173"/>
+      <c r="B95" s="173"/>
+      <c r="C95" s="173"/>
+      <c r="D95" s="173"/>
+      <c r="E95" s="173"/>
+      <c r="F95" s="173"/>
+      <c r="G95" s="173"/>
+      <c r="H95" s="173"/>
+      <c r="I95" s="173"/>
+    </row>
+    <row r="96" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="173"/>
+      <c r="B96" s="173"/>
+      <c r="C96" s="173"/>
+      <c r="D96" s="173"/>
+      <c r="E96" s="173"/>
+      <c r="F96" s="173"/>
+      <c r="G96" s="173"/>
+      <c r="H96" s="173"/>
+      <c r="I96" s="173"/>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="173"/>
+      <c r="B97" s="173"/>
+      <c r="C97" s="173"/>
+      <c r="D97" s="173"/>
+      <c r="E97" s="173"/>
+      <c r="F97" s="173"/>
+      <c r="G97" s="173"/>
+      <c r="H97" s="173"/>
+      <c r="I97" s="173"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="173"/>
+      <c r="B98" s="173"/>
+      <c r="C98" s="173"/>
+      <c r="D98" s="173"/>
+      <c r="E98" s="173"/>
+      <c r="F98" s="173"/>
+      <c r="G98" s="173"/>
+      <c r="H98" s="173"/>
+      <c r="I98" s="173"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99" s="173"/>
+      <c r="B99" s="173"/>
+      <c r="C99" s="173"/>
+      <c r="D99" s="173"/>
+      <c r="E99" s="173"/>
+      <c r="F99" s="173"/>
+      <c r="G99" s="173"/>
+      <c r="H99" s="173"/>
+      <c r="I99" s="173"/>
+    </row>
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" s="173"/>
+      <c r="B100" s="173"/>
+      <c r="C100" s="173"/>
+      <c r="D100" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82" s="179">
-        <v>6</v>
-      </c>
-      <c r="F82" s="178"/>
-      <c r="G82" s="178"/>
-      <c r="H82" s="178"/>
-      <c r="I82" s="178" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="177"/>
-      <c r="B83" s="233"/>
-      <c r="C83" s="233"/>
-      <c r="D83" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="E83" s="179" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" s="178"/>
-      <c r="G83" s="178"/>
-      <c r="H83" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="I83" s="178" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="177" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="232"/>
-      <c r="C84" s="232"/>
-      <c r="D84" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="E84" s="179">
-        <v>7</v>
-      </c>
-      <c r="F84" s="291"/>
-      <c r="G84" s="291"/>
-      <c r="H84" s="178" t="s">
-        <v>92</v>
-      </c>
-      <c r="I84" s="178"/>
-    </row>
-    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="177"/>
-      <c r="B85" s="232"/>
-      <c r="C85" s="232"/>
-      <c r="D85" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85" s="178"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="178"/>
-      <c r="H85" s="178"/>
-      <c r="I85" s="178"/>
-    </row>
-    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="177"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="178"/>
-      <c r="E86" s="178"/>
-      <c r="F86" s="178"/>
-      <c r="G86" s="178"/>
-      <c r="H86" s="178"/>
-      <c r="I86" s="178"/>
-    </row>
-    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="177"/>
-      <c r="B87" s="233" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="233"/>
-      <c r="D87" s="178"/>
-      <c r="E87" s="178"/>
-      <c r="F87" s="178"/>
-      <c r="G87" s="178"/>
-      <c r="H87" s="178"/>
-      <c r="I87" s="178"/>
-    </row>
-    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="177"/>
-      <c r="B88" s="177"/>
-      <c r="C88" s="178"/>
-      <c r="D88" s="178"/>
-      <c r="E88" s="178"/>
-      <c r="F88" s="178"/>
-      <c r="G88" s="178"/>
-      <c r="H88" s="178"/>
-      <c r="I88" s="178"/>
-    </row>
-    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="177"/>
-      <c r="B89" s="177"/>
-      <c r="C89" s="178"/>
-      <c r="D89" s="178"/>
-      <c r="E89" s="178"/>
-      <c r="F89" s="178"/>
-      <c r="G89" s="178"/>
-      <c r="H89" s="178"/>
-      <c r="I89" s="178"/>
-    </row>
-    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="178"/>
-      <c r="B90" s="178"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="178"/>
-      <c r="E90" s="178"/>
-      <c r="F90" s="178"/>
-      <c r="G90" s="178"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="178"/>
-    </row>
-    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="178"/>
-      <c r="B91" s="178"/>
-      <c r="C91" s="178"/>
-      <c r="D91" s="178"/>
-      <c r="E91" s="178"/>
-      <c r="F91" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="G91" s="178"/>
-      <c r="H91" s="178"/>
-      <c r="I91" s="178"/>
-    </row>
-    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="178"/>
-      <c r="B92" s="178"/>
-      <c r="C92" s="178"/>
-      <c r="D92" s="178"/>
-      <c r="E92" s="178"/>
-      <c r="F92" s="178"/>
-      <c r="G92" s="178"/>
-      <c r="H92" s="178"/>
-      <c r="I92" s="178"/>
-    </row>
-    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="178"/>
-      <c r="B93" s="178"/>
-      <c r="C93" s="178"/>
-      <c r="D93" s="178"/>
-      <c r="E93" s="178"/>
-      <c r="F93" s="178"/>
-      <c r="G93" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="H93" s="178"/>
-      <c r="I93" s="178"/>
-    </row>
-    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="178"/>
-      <c r="B94" s="178"/>
-      <c r="C94" s="178"/>
-      <c r="D94" s="178"/>
-      <c r="E94" s="178"/>
-      <c r="F94" s="178"/>
-      <c r="G94" s="178"/>
-      <c r="H94" s="178"/>
-      <c r="I94" s="178"/>
-    </row>
-    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95" s="178"/>
-      <c r="B95" s="178"/>
-      <c r="C95" s="178"/>
-      <c r="D95" s="178"/>
-      <c r="E95" s="178"/>
-      <c r="F95" s="178"/>
-      <c r="G95" s="178"/>
-      <c r="H95" s="178"/>
-      <c r="I95" s="178"/>
-    </row>
-    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A96" s="178"/>
-      <c r="B96" s="178"/>
-      <c r="C96" s="178"/>
-      <c r="D96" s="178"/>
-      <c r="E96" s="178"/>
-      <c r="F96" s="178"/>
-      <c r="G96" s="178"/>
-      <c r="H96" s="178"/>
-      <c r="I96" s="178"/>
-    </row>
-    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A97" s="178"/>
-      <c r="B97" s="178"/>
-      <c r="C97" s="178"/>
-      <c r="D97" s="178"/>
-      <c r="E97" s="178"/>
-      <c r="F97" s="178"/>
-      <c r="G97" s="178"/>
-      <c r="H97" s="178"/>
-      <c r="I97" s="178"/>
-    </row>
-    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A98" s="178"/>
-      <c r="B98" s="178"/>
-      <c r="C98" s="178"/>
-      <c r="D98" s="178"/>
-      <c r="E98" s="178"/>
-      <c r="F98" s="178"/>
-      <c r="G98" s="178"/>
-      <c r="H98" s="178"/>
-      <c r="I98" s="178"/>
-    </row>
-    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A99" s="178"/>
-      <c r="B99" s="178"/>
-      <c r="C99" s="178"/>
-      <c r="D99" s="178"/>
-      <c r="E99" s="178"/>
-      <c r="F99" s="178"/>
-      <c r="G99" s="178"/>
-      <c r="H99" s="178"/>
-      <c r="I99" s="178"/>
-    </row>
-    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A100" s="178"/>
-      <c r="B100" s="178"/>
-      <c r="C100" s="178"/>
-      <c r="D100" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="E100" s="178"/>
-      <c r="F100" s="178"/>
-      <c r="G100" s="178"/>
-      <c r="H100" s="178"/>
-      <c r="I100" s="178"/>
+      <c r="E100" s="173"/>
+      <c r="F100" s="173"/>
+      <c r="G100" s="173"/>
+      <c r="H100" s="173"/>
+      <c r="I100" s="173"/>
     </row>
     <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A101" s="178"/>
-      <c r="B101" s="178"/>
-      <c r="C101" s="178"/>
-      <c r="D101" s="178"/>
-      <c r="E101" s="178"/>
-      <c r="F101" s="178"/>
-      <c r="G101" s="178"/>
-      <c r="H101" s="178"/>
-      <c r="I101" s="178"/>
+      <c r="A101" s="173"/>
+      <c r="B101" s="173"/>
+      <c r="C101" s="173"/>
+      <c r="D101" s="173"/>
+      <c r="E101" s="173"/>
+      <c r="F101" s="173"/>
+      <c r="G101" s="173"/>
+      <c r="H101" s="173"/>
+      <c r="I101" s="173"/>
     </row>
     <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="178"/>
-      <c r="B102" s="178"/>
-      <c r="C102" s="178"/>
-      <c r="D102" s="178"/>
-      <c r="E102" s="178"/>
-      <c r="F102" s="178"/>
-      <c r="G102" s="178"/>
-      <c r="H102" s="178"/>
-      <c r="I102" s="178"/>
+      <c r="A102" s="173"/>
+      <c r="B102" s="173"/>
+      <c r="C102" s="173"/>
+      <c r="D102" s="173"/>
+      <c r="E102" s="173"/>
+      <c r="F102" s="173"/>
+      <c r="G102" s="173"/>
+      <c r="H102" s="173"/>
+      <c r="I102" s="173"/>
     </row>
     <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A103" s="178"/>
-      <c r="B103" s="178"/>
-      <c r="C103" s="178"/>
-      <c r="D103" s="178"/>
-      <c r="E103" s="178"/>
-      <c r="F103" s="178"/>
-      <c r="G103" s="178"/>
-      <c r="H103" s="178"/>
-      <c r="I103" s="178"/>
+      <c r="A103" s="173"/>
+      <c r="B103" s="173"/>
+      <c r="C103" s="173"/>
+      <c r="D103" s="173"/>
+      <c r="E103" s="173"/>
+      <c r="F103" s="173"/>
+      <c r="G103" s="173"/>
+      <c r="H103" s="173"/>
+      <c r="I103" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F80:G80"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
@@ -8135,14 +8216,18 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B84:C84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" verticalDpi="0" r:id="rId1"/>
